--- a/target/classes/companies/Utilities/UGI/UGI_UGICorp.xlsx
+++ b/target/classes/companies/Utilities/UGI/UGI_UGICorp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA47F2A-331D-4DE4-8AB9-EDFB71BEF112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
   <si>
     <t>WACC</t>
   </si>
@@ -497,6 +497,15 @@
   </si>
   <si>
     <t>EPS Growth esitmation (%)</t>
+  </si>
+  <si>
+    <t>CE_Celanese</t>
+  </si>
+  <si>
+    <t>sector median (19.16)</t>
+  </si>
+  <si>
+    <t>sector median (14.4)</t>
   </si>
   <si>
     <t>Long Term Debt</t>
@@ -1244,7 +1253,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1354,7 +1363,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,7 +1372,7 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="5" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,11 +1387,11 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1404,18 +1413,18 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="25" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,7 +1433,7 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1746,34 +1755,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.8653453035430725E-2</c:v>
+                  <c:v>0.16912442396313365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0737924222108278E-2</c:v>
+                  <c:v>9.1737724198765067E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1996083737923504E-2</c:v>
+                  <c:v>5.3577722946774764E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4143377188213876E-2</c:v>
+                  <c:v>0.16700686583781776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1331709146264577E-2</c:v>
+                  <c:v>0.13729641693811076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3974643837406877E-2</c:v>
+                  <c:v>0.16869322152341021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4972677595628415E-2</c:v>
+                  <c:v>0.13530252501191042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1109925293489857E-2</c:v>
+                  <c:v>0.35101679929266139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19699207734658253</c:v>
+                  <c:v>0.22138924680801217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10617454977241243</c:v>
+                  <c:v>0.1958027499224646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,34 +1920,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.16598328196495618</c:v>
+                  <c:v>0.28064516129032258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16533169418667276</c:v>
+                  <c:v>0.15524845633637166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18068777665177763</c:v>
+                  <c:v>0.1214310891787099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24427967590018571</c:v>
+                  <c:v>0.22805715346075339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23302890246453387</c:v>
+                  <c:v>0.19006514657980456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19866684093582537</c:v>
+                  <c:v>0.23522012578616353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14549180327868852</c:v>
+                  <c:v>0.18897887883118947</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22350968135386493</c:v>
+                  <c:v>0.18037135278514588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38297300926547601</c:v>
+                  <c:v>0.2722267775565187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21610924203443499</c:v>
+                  <c:v>0.19187428925876149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,34 +2085,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.3851722995428631E-2</c:v>
+                  <c:v>5.9139784946236562E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.6277649539196529E-2</c:v>
+                  <c:v>4.1752425757130257E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1006112600890306</c:v>
+                  <c:v>6.0274938315121609E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1389623081273765E-2</c:v>
+                  <c:v>0.12005938021896456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3180190111138288E-2</c:v>
+                  <c:v>8.7296416938110744E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6788655077767614E-2</c:v>
+                  <c:v>0.17064989517819706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0956284153005467E-2</c:v>
+                  <c:v>0.17214546609496587</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8150632718402201E-2</c:v>
+                  <c:v>0.17312113174182139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10621726869880489</c:v>
+                  <c:v>0.15110694623404006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.7076983969918854E-3</c:v>
+                  <c:v>0.13191357386539854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,34 +2643,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17.200000762939453</c:v>
+                  <c:v>17.280000686645508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.780000686645508</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.100000381469727</c:v>
+                  <c:v>19.739999771118164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.149999618530273</c:v>
+                  <c:v>25.079999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.090000152587891</c:v>
+                  <c:v>18.399999618530273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.140000343322754</c:v>
+                  <c:v>9.2899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.029998779296875</c:v>
+                  <c:v>16.959999084472656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.760000228881836</c:v>
+                  <c:v>26.139999389648438</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.630000114440918</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4600000381469727</c:v>
+                  <c:v>6.7399997711181641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,34 +2857,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.9800000190734863</c:v>
+                  <c:v>13.220000267028809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.619999885559082</c:v>
+                  <c:v>9.8900003433227539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0999999046325684</c:v>
+                  <c:v>11.619999885559082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3400001525878906</c:v>
+                  <c:v>10.770000457763672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.619999885559082</c:v>
+                  <c:v>21.469999313354492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6999998092651367</c:v>
+                  <c:v>9.7899999618530273</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5900001525878906</c:v>
+                  <c:v>10.529999732971191</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6599998474121094</c:v>
+                  <c:v>11.140000343322754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5799999237060547</c:v>
+                  <c:v>13.199999809265137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.170000076293945</c:v>
+                  <c:v>6.0100002288818359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,34 +3312,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6000000238418579</c:v>
+                  <c:v>6.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9199999570846558</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6000000238418579</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0799999237060547</c:v>
+                  <c:v>6.179999828338623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4600000381469727</c:v>
+                  <c:v>6.0900001525878906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.059999942779541</c:v>
+                  <c:v>8.9099998474121094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4099999666213989</c:v>
+                  <c:v>6.8400001525878906</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5399999618530273</c:v>
+                  <c:v>16.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9200000762939453</c:v>
+                  <c:v>16.860000610351563</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9699997901916504</c:v>
+                  <c:v>17.340000152587891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,34 +3767,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7194.7001953125</c:v>
+                  <c:v>6510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8277.2998046875</c:v>
+                  <c:v>6802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6691.10009765625</c:v>
+                  <c:v>5674</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5685.7001953125</c:v>
+                  <c:v>5389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6120.7001953125</c:v>
+                  <c:v>6140</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7651</c:v>
+                  <c:v>7155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7320</c:v>
+                  <c:v>6297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6559</c:v>
+                  <c:v>5655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7447</c:v>
+                  <c:v>8537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10106</c:v>
+                  <c:v>9673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4192,34 +4201,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3542.199951171875</c:v>
+                  <c:v>2887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3433.60009765625</c:v>
+                  <c:v>2586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3409.5</c:v>
+                  <c:v>2468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3766</c:v>
+                  <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3994.60009765625</c:v>
+                  <c:v>3315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4146.5</c:v>
+                  <c:v>2970</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5780</c:v>
+                  <c:v>3409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5981</c:v>
+                  <c:v>3227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6339</c:v>
+                  <c:v>3176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6483</c:v>
+                  <c:v>13373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,34 +4338,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1194.199951171875</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1368.5</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1209</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1388.9010009765625</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1426.300048828125</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1520</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1065</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1466</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2852</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2184</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4452,34 +4461,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.9661699011927483</c:v>
+                  <c:v>1.5801860974274768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5090245507170259</c:v>
+                  <c:v>2.4488636363636362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8200992555831266</c:v>
+                  <c:v>3.5820029027576199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7114963538452783</c:v>
+                  <c:v>2.3515052888527257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8006730427712423</c:v>
+                  <c:v>2.8406169665809768</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7279605263157896</c:v>
+                  <c:v>1.7647058823529411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.427230046948357</c:v>
+                  <c:v>2.8647058823529412</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0798090040927697</c:v>
+                  <c:v>3.1637254901960783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2226507713884991</c:v>
+                  <c:v>1.3666092943201378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9684065934065935</c:v>
+                  <c:v>7.2052801724137927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,34 +4957,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>315.5</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>548.5999755859375</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>673.20001220703125</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>405.89999389648438</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>325.5</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>511</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>373</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>447</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>791</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-88</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,34 +5094,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>125.80000305175781</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>136.10000610351563</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153.5</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160.69999694824219</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>168.89999389648438</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>177</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>273</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>282</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>296</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5224,34 +5233,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.39873218082966083</c:v>
+                  <c:v>0.21558441558441557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24808605935163039</c:v>
+                  <c:v>0.50704225352112675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22801544446911526</c:v>
+                  <c:v>0.50877192982456143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39591032117439512</c:v>
+                  <c:v>0.31066460587326122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51889399046538864</c:v>
+                  <c:v>0.44962686567164178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34637964774951074</c:v>
+                  <c:v>0.22932022932022933</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53619302949061665</c:v>
+                  <c:v>0.2767527675276753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61073825503355705</c:v>
+                  <c:v>0.2992849846782431</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35651074589127685</c:v>
+                  <c:v>0.23565891472868217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.3636363636363638</c:v>
+                  <c:v>0.23275862068965517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5744,34 +5753,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8381.5</c:v>
+                  <c:v>5836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8430</c:v>
+                  <c:v>6098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9054.3994140625</c:v>
+                  <c:v>5799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9423.400390625</c:v>
+                  <c:v>5885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9884.7001953125</c:v>
+                  <c:v>6746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10092.7998046875</c:v>
+                  <c:v>6439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11781</c:v>
+                  <c:v>6711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12442</c:v>
+                  <c:v>7146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13453</c:v>
+                  <c:v>8168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13773</c:v>
+                  <c:v>19661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5881,34 +5890,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1627.300048828125</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1663</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1459.800048828125</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1423.800048828125</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1697.5</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1888.0999755859375</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1566</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1543</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3270</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3802</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6310,34 +6319,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1424.9000244140625</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1430.9000244140625</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1678.800048828125</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1442</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1690.0999755859375</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1732.0999755859375</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2028</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1755</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2297</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2444</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6447,34 +6456,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5036</c:v>
+                  <c:v>4774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4998.89990234375</c:v>
+                  <c:v>4380</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5263</c:v>
+                  <c:v>4207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5810.2001953125</c:v>
+                  <c:v>4259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6151.2001953125</c:v>
+                  <c:v>4680</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6148.7998046875</c:v>
+                  <c:v>4155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7492</c:v>
+                  <c:v>4824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8093</c:v>
+                  <c:v>5041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8895</c:v>
+                  <c:v>4933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9057</c:v>
+                  <c:v>16099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6876,34 +6885,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3547.9000244140625</c:v>
+                  <c:v>2699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3663.2000732421875</c:v>
+                  <c:v>3078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3572.3994140625</c:v>
+                  <c:v>2829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3595.000244140625</c:v>
+                  <c:v>3021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3740.9000244140625</c:v>
+                  <c:v>3299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4100</c:v>
+                  <c:v>3379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3827</c:v>
+                  <c:v>2898</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4137</c:v>
+                  <c:v>3895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5531</c:v>
+                  <c:v>4537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6074</c:v>
+                  <c:v>6105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6993,34 +7002,34 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6460.9000244140625</c:v>
+                  <c:v>6319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6429.7999267578125</c:v>
+                  <c:v>5718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6941.800048828125</c:v>
+                  <c:v>5757</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7252.2001953125</c:v>
+                  <c:v>5336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7841.3001708984375</c:v>
+                  <c:v>6239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7880.8997802734375</c:v>
+                  <c:v>5934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9520</c:v>
+                  <c:v>6578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9848</c:v>
+                  <c:v>7014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11192</c:v>
+                  <c:v>7438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11501</c:v>
+                  <c:v>20167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7132,34 +7141,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.8210490656317424</c:v>
+                  <c:v>2.341237495368655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7552412639768771</c:v>
+                  <c:v>1.8576998050682261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9431757886596388</c:v>
+                  <c:v>2.0349946977730649</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0173017253983829</c:v>
+                  <c:v>1.7663025488248925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.096099901019576</c:v>
+                  <c:v>1.8911791451955138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9221706781154733</c:v>
+                  <c:v>1.7561408700799053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.487588189182127</c:v>
+                  <c:v>2.2698412698412698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3804689388445732</c:v>
+                  <c:v>1.8007702182284981</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0235038871813416</c:v>
+                  <c:v>1.6394093013004187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8934804082976622</c:v>
+                  <c:v>3.3033579033579032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7595,34 +7604,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1627.300048828125</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1663</c:v>
+                  <c:v>2698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1459.800048828125</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1423.800048828125</c:v>
+                  <c:v>2472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1697.5</c:v>
+                  <c:v>2792</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1888.0999755859375</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1566</c:v>
+                  <c:v>2765</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1543</c:v>
+                  <c:v>3763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3270</c:v>
+                  <c:v>3807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3802</c:v>
+                  <c:v>6611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7712,34 +7721,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1424.9000244140625</c:v>
+                  <c:v>1545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1430.9000244140625</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1678.800048828125</c:v>
+                  <c:v>1550</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1442</c:v>
+                  <c:v>1077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1690.0999755859375</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1732.0999755859375</c:v>
+                  <c:v>1779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2028</c:v>
+                  <c:v>1754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1755</c:v>
+                  <c:v>1973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2297</c:v>
+                  <c:v>2505</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2444</c:v>
+                  <c:v>4068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7890,34 +7899,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1420450704934895</c:v>
+                  <c:v>2.0595469255663432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1622055850344839</c:v>
+                  <c:v>2.0164424514200299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86954968213583816</c:v>
+                  <c:v>1.7980645161290323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98737867463809292</c:v>
+                  <c:v>2.2952646239554317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0043784536541955</c:v>
+                  <c:v>1.790891597177678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0900640853292709</c:v>
+                  <c:v>1.615514333895447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77218934911242598</c:v>
+                  <c:v>1.5763968072976056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.87920227920227922</c:v>
+                  <c:v>1.9072478459199189</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4235959947757946</c:v>
+                  <c:v>1.5197604790419161</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5556464811783961</c:v>
+                  <c:v>1.6251229105211407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8470,34 +8479,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1194.199951171875</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1368.5</c:v>
+                  <c:v>1056</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1209</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1388.9010009765625</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1426.300048828125</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1520</c:v>
+                  <c:v>1683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1065</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1466</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2852</c:v>
+                  <c:v>2324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2184</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8663,34 +8672,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>278.10000610351563</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>337.20001220703125</c:v>
+                  <c:v>624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>281</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>364.70001220703125</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>436.60000610351563</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>719</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>256</c:v>
+                  <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>532</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1467</c:v>
+                  <c:v>1890</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1073</c:v>
+                  <c:v>1894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8859,34 +8868,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>315.5</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>548.5999755859375</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>673.20001220703125</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>405.89999389648438</c:v>
+                  <c:v>647</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>325.5</c:v>
+                  <c:v>536</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>511</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>373</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>447</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>791</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-88</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9299,34 +9308,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.7785549191391619</c:v>
+                  <c:v>12.208915502328676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3409294779256018</c:v>
+                  <c:v>7.094133697135061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6725762716579329</c:v>
+                  <c:v>3.5406475658047984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3621579525769199</c:v>
+                  <c:v>10.769414861792509</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7695774441907415</c:v>
+                  <c:v>8.8383308869784027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0012187163424606</c:v>
+                  <c:v>12.960377966283689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9180340151344872</c:v>
+                  <c:v>8.99113550021106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8040757954951734</c:v>
+                  <c:v>18.195984966541388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.772349458829158</c:v>
+                  <c:v>15.782881002087683</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1052631578947372</c:v>
+                  <c:v>7.2091961023142508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9463,34 +9472,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.8384397584439984</c:v>
+                  <c:v>40.792886254168209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2050667576173435</c:v>
+                  <c:v>20.2729044834308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8658617760898508</c:v>
+                  <c:v>10.745846588900672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.144644991372205</c:v>
+                  <c:v>29.791459781529294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.67098835184458</c:v>
+                  <c:v>25.553197938769323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.536585365853657</c:v>
+                  <c:v>35.720627404557561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.68931277763261</c:v>
+                  <c:v>29.399585921325052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.859560067681896</c:v>
+                  <c:v>50.96277278562259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.523232688483095</c:v>
+                  <c:v>41.657482918227906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.665459334869936</c:v>
+                  <c:v>31.023751023751025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9627,34 +9636,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.1100001335144043</c:v>
+                  <c:v>22.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6700000762939453</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8000001907348633</c:v>
+                  <c:v>6.8600001335144043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.570000171661377</c:v>
+                  <c:v>18.329999923706055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>15.489999771118164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.529999732971191</c:v>
+                  <c:v>19.989999771118164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.679999828338623</c:v>
+                  <c:v>14.409999847412109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4600000381469727</c:v>
+                  <c:v>29.430000305175781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.869999885559082</c:v>
+                  <c:v>24.680000305175781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.489999771118164</c:v>
+                  <c:v>14.380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10110,34 +10119,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>173.28199768066406</c:v>
+                  <c:v>159.33399963378906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>175.23100280761719</c:v>
+                  <c:v>156.16700744628906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>175.66700744628906</c:v>
+                  <c:v>152.28799438476563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>175.57200622558594</c:v>
+                  <c:v>145.66799926757813</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177.15899658203125</c:v>
+                  <c:v>138.31700134277344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>176.90499877929688</c:v>
+                  <c:v>135.41700744628906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181.11099243164063</c:v>
+                  <c:v>124.65200042724609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>209.86900329589844</c:v>
+                  <c:v>118.48100280761719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>212.12600708007813</c:v>
+                  <c:v>112.08399963378906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>215.82099914550781</c:v>
+                  <c:v>109.23500061035156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18068,7 +18077,7 @@
                   <m:oMathParaPr>
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMath>
                     <m:r>
                       <a:rPr lang="en-US" sz="2000" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -18162,7 +18171,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -18690,18 +18699,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.453125"/>
+    <col min="4" max="4" customWidth="true" width="7.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.1796875"/>
+    <col min="6" max="6" customWidth="true" width="19.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.453125"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="15" thickBot="1"/>
     <row r="3" spans="2:22">
       <c r="B3" s="139" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C3" s="140"/>
       <c r="D3" s="140"/>
@@ -18855,49 +18864,49 @@
       <c r="E12" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="123" t="n">
         <f>AVERAGE(L12:P12)</f>
         <v>5.3201882287392035</v>
       </c>
-      <c r="G12" s="119">
+      <c r="G12" s="119" t="n">
         <f>Financials!D76</f>
-        <v>2.7785549191391619</v>
-      </c>
-      <c r="H12" s="119">
+        <v>2.778554919139162</v>
+      </c>
+      <c r="H12" s="119" t="n">
         <f>Financials!E76</f>
-        <v>3.3409294779256018</v>
-      </c>
-      <c r="I12" s="119">
+        <v>3.340929477925602</v>
+      </c>
+      <c r="I12" s="119" t="n">
         <f>Financials!F76</f>
-        <v>2.6725762716579329</v>
-      </c>
-      <c r="J12" s="119">
+        <v>2.672576271657933</v>
+      </c>
+      <c r="J12" s="119" t="n">
         <f>Financials!G76</f>
-        <v>3.3621579525769199</v>
-      </c>
-      <c r="K12" s="119">
+        <v>3.36215795257692</v>
+      </c>
+      <c r="K12" s="119" t="n">
         <f>Financials!H76</f>
         <v>3.7695774441907415</v>
       </c>
-      <c r="L12" s="119">
+      <c r="L12" s="119" t="n">
         <f>Financials!I76</f>
-        <v>6.0012187163424606</v>
-      </c>
-      <c r="M12" s="119">
+        <v>6.001218716342461</v>
+      </c>
+      <c r="M12" s="119" t="n">
         <f>Financials!J76</f>
         <v>1.9180340151344872</v>
       </c>
-      <c r="N12" s="119">
+      <c r="N12" s="119" t="n">
         <f>Financials!K76</f>
         <v>3.8040757954951734</v>
       </c>
-      <c r="O12" s="119">
+      <c r="O12" s="119" t="n">
         <f>Financials!L76</f>
         <v>8.772349458829158</v>
       </c>
-      <c r="P12" s="119">
+      <c r="P12" s="119" t="n">
         <f>Financials!M76</f>
-        <v>6.1052631578947372</v>
+        <v>6.105263157894737</v>
       </c>
     </row>
     <row r="13" spans="2:22">
@@ -18929,47 +18938,47 @@
       <c r="E14" s="46">
         <v>0.08</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F14" s="124" t="n">
         <f>AVERAGE(L14:P14)</f>
-        <v>16.254830046904239</v>
-      </c>
-      <c r="G14" s="40">
+        <v>16.25483004690424</v>
+      </c>
+      <c r="G14" s="40" t="n">
         <f>Financials!D77</f>
-        <v>7.8384397584439984</v>
-      </c>
-      <c r="H14" s="40">
+        <v>7.838439758443998</v>
+      </c>
+      <c r="H14" s="40" t="n">
         <f>Financials!E77</f>
-        <v>9.2050667576173435</v>
-      </c>
-      <c r="I14" s="40">
+        <v>9.205066757617343</v>
+      </c>
+      <c r="I14" s="40" t="n">
         <f>Financials!F77</f>
-        <v>7.8658617760898508</v>
-      </c>
-      <c r="J14" s="40">
+        <v>7.865861776089851</v>
+      </c>
+      <c r="J14" s="40" t="n">
         <f>Financials!G77</f>
         <v>10.144644991372205</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="40" t="n">
         <f>Financials!H77</f>
         <v>11.67098835184458</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="40" t="n">
         <f>Financials!I77</f>
         <v>17.536585365853657</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="40" t="n">
         <f>Financials!J77</f>
         <v>6.68931277763261</v>
       </c>
-      <c r="N14" s="40">
+      <c r="N14" s="40" t="n">
         <f>Financials!K77</f>
         <v>12.859560067681896</v>
       </c>
-      <c r="O14" s="40">
+      <c r="O14" s="40" t="n">
         <f>Financials!L77</f>
         <v>26.523232688483095</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="40" t="n">
         <f>Financials!M77</f>
         <v>17.665459334869936</v>
       </c>
@@ -19006,51 +19015,51 @@
         <f>T11</f>
         <v>J</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="47" t="n">
         <f>WACC!$C$25</f>
-        <v>6.7876669991130206E-2</v>
-      </c>
-      <c r="F16" s="124">
+        <v>0.0678766699911302</v>
+      </c>
+      <c r="F16" s="124" t="n">
         <f>AVERAGE(L16:P16)</f>
-        <v>9.8059998512268063</v>
-      </c>
-      <c r="G16" s="40">
+        <v>9.805999851226806</v>
+      </c>
+      <c r="G16" s="40" t="n">
         <f>Financials!D78</f>
-        <v>7.1100001335144043</v>
-      </c>
-      <c r="H16" s="40">
+        <v>7.110000133514404</v>
+      </c>
+      <c r="H16" s="40" t="n">
         <f>Financials!E78</f>
-        <v>7.6700000762939453</v>
-      </c>
-      <c r="I16" s="40">
+        <v>7.670000076293945</v>
+      </c>
+      <c r="I16" s="40" t="n">
         <f>Financials!F78</f>
-        <v>6.8000001907348633</v>
-      </c>
-      <c r="J16" s="40">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="J16" s="40" t="n">
         <f>Financials!G78</f>
         <v>7.570000171661377</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="40" t="n">
         <f>Financials!H78</f>
-        <v>8</v>
-      </c>
-      <c r="L16" s="40">
+        <v>8.0</v>
+      </c>
+      <c r="L16" s="40" t="n">
         <f>Financials!I78</f>
         <v>11.529999732971191</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="40" t="n">
         <f>Financials!J78</f>
         <v>4.679999828338623</v>
       </c>
-      <c r="N16" s="40">
+      <c r="N16" s="40" t="n">
         <f>Financials!K78</f>
-        <v>7.4600000381469727</v>
-      </c>
-      <c r="O16" s="40">
+        <v>7.460000038146973</v>
+      </c>
+      <c r="O16" s="40" t="n">
         <f>Financials!L78</f>
         <v>14.869999885559082</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="40" t="n">
         <f>Financials!M78</f>
         <v>10.489999771118164</v>
       </c>
@@ -19093,49 +19102,49 @@
       <c r="E18" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="125">
+      <c r="F18" s="125" t="n">
         <f>AVERAGE(L18:P18)</f>
         <v>1.1441396379196334</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="42" t="n">
         <f>Financials!D59</f>
         <v>1.1420450704934895</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="42" t="n">
         <f>Financials!E59</f>
-        <v>1.1622055850344839</v>
-      </c>
-      <c r="I18" s="42">
+        <v>1.162205585034484</v>
+      </c>
+      <c r="I18" s="42" t="n">
         <f>Financials!F59</f>
-        <v>0.86954968213583816</v>
-      </c>
-      <c r="J18" s="42">
+        <v>0.8695496821358382</v>
+      </c>
+      <c r="J18" s="42" t="n">
         <f>Financials!G59</f>
-        <v>0.98737867463809292</v>
-      </c>
-      <c r="K18" s="42">
+        <v>0.9873786746380929</v>
+      </c>
+      <c r="K18" s="42" t="n">
         <f>Financials!H59</f>
         <v>1.0043784536541955</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="42" t="n">
         <f>Financials!I59</f>
-        <v>1.0900640853292709</v>
-      </c>
-      <c r="M18" s="42">
+        <v>1.090064085329271</v>
+      </c>
+      <c r="M18" s="42" t="n">
         <f>Financials!J59</f>
-        <v>0.77218934911242598</v>
-      </c>
-      <c r="N18" s="42">
+        <v>0.772189349112426</v>
+      </c>
+      <c r="N18" s="42" t="n">
         <f>Financials!K59</f>
-        <v>0.87920227920227922</v>
-      </c>
-      <c r="O18" s="42">
+        <v>0.8792022792022792</v>
+      </c>
+      <c r="O18" s="42" t="n">
         <f>Financials!L59</f>
         <v>1.4235959947757946</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="42" t="n">
         <f>Financials!M59</f>
-        <v>1.5556464811783961</v>
+        <v>1.555646481178396</v>
       </c>
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
@@ -19166,7 +19175,7 @@
     <row r="20" spans="2:20" ht="18.5">
       <c r="B20" s="152"/>
       <c r="C20" s="36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D20" s="56" t="str">
         <f>V11</f>
@@ -19175,47 +19184,47 @@
       <c r="E20" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="125" t="n">
         <f>AVERAGE(L20:P20)</f>
         <v>2.1414424203242355</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="42" t="n">
         <f>Financials!D58</f>
         <v>1.8210490656317424</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="42" t="n">
         <f>Financials!E58</f>
-        <v>1.7552412639768771</v>
-      </c>
-      <c r="I20" s="42">
+        <v>1.755241263976877</v>
+      </c>
+      <c r="I20" s="42" t="n">
         <f>Financials!F58</f>
         <v>1.9431757886596388</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="42" t="n">
         <f>Financials!G58</f>
-        <v>2.0173017253983829</v>
-      </c>
-      <c r="K20" s="42">
+        <v>2.017301725398383</v>
+      </c>
+      <c r="K20" s="42" t="n">
         <f>Financials!H58</f>
         <v>2.096099901019576</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="42" t="n">
         <f>Financials!I58</f>
         <v>1.9221706781154733</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="42" t="n">
         <f>Financials!J58</f>
         <v>2.487588189182127</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="42" t="n">
         <f>Financials!K58</f>
         <v>2.3804689388445732</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="42" t="n">
         <f>Financials!L58</f>
         <v>2.0235038871813416</v>
       </c>
-      <c r="P20" s="42">
+      <c r="P20" s="42" t="n">
         <f>Financials!M58</f>
         <v>1.8934804082976622</v>
       </c>
@@ -19248,56 +19257,56 @@
     <row r="22" spans="2:20" ht="18.5">
       <c r="B22" s="132"/>
       <c r="C22" s="36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D22" s="55" t="str">
         <f>U11</f>
         <v>K</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="125">
+        <v>161</v>
+      </c>
+      <c r="F22" s="125" t="n">
         <f>AVERAGE(L22:P22)</f>
         <v>3.4852113884304017</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="42" t="n">
         <f>Financials!D60</f>
         <v>2.9661699011927483</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="42" t="n">
         <f>Financials!E60</f>
-        <v>2.5090245507170259</v>
-      </c>
-      <c r="I22" s="42">
+        <v>2.509024550717026</v>
+      </c>
+      <c r="I22" s="42" t="n">
         <f>Financials!F60</f>
         <v>2.8200992555831266</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="42" t="n">
         <f>Financials!G60</f>
         <v>2.7114963538452783</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="42" t="n">
         <f>Financials!H60</f>
         <v>2.8006730427712423</v>
       </c>
-      <c r="L22" s="42">
+      <c r="L22" s="42" t="n">
         <f>Financials!I60</f>
         <v>2.7279605263157896</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="42" t="n">
         <f>Financials!J60</f>
         <v>5.427230046948357</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="42" t="n">
         <f>Financials!K60</f>
-        <v>4.0798090040927697</v>
-      </c>
-      <c r="O22" s="42">
+        <v>4.07980900409277</v>
+      </c>
+      <c r="O22" s="42" t="n">
         <f>Financials!L60</f>
-        <v>2.2226507713884991</v>
-      </c>
-      <c r="P22" s="42">
+        <v>2.222650771388499</v>
+      </c>
+      <c r="P22" s="42" t="n">
         <f>Financials!M60</f>
         <v>2.9684065934065935</v>
       </c>
@@ -19342,45 +19351,45 @@
         <v>69</v>
       </c>
       <c r="F24" s="50"/>
-      <c r="G24" s="40">
+      <c r="G24" s="40" t="n">
         <f>Financials!D12</f>
         <v>173.28199768066406</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="40" t="n">
         <f>Financials!E12</f>
-        <v>175.23100280761719</v>
-      </c>
-      <c r="I24" s="40">
+        <v>175.2310028076172</v>
+      </c>
+      <c r="I24" s="40" t="n">
         <f>Financials!F12</f>
         <v>175.66700744628906</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="40" t="n">
         <f>Financials!G12</f>
         <v>175.57200622558594</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="40" t="n">
         <f>Financials!H12</f>
         <v>177.15899658203125</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="40" t="n">
         <f>Financials!I12</f>
         <v>176.90499877929688</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="40" t="n">
         <f>Financials!J12</f>
-        <v>181.11099243164063</v>
-      </c>
-      <c r="N24" s="40">
+        <v>181.11099243164062</v>
+      </c>
+      <c r="N24" s="40" t="n">
         <f>Financials!K12</f>
         <v>209.86900329589844</v>
       </c>
-      <c r="O24" s="40">
+      <c r="O24" s="40" t="n">
         <f>Financials!L12</f>
-        <v>212.12600708007813</v>
-      </c>
-      <c r="P24" s="40">
+        <v>212.12600708007812</v>
+      </c>
+      <c r="P24" s="40" t="n">
         <f>Financials!M12</f>
-        <v>215.82099914550781</v>
+        <v>215.8209991455078</v>
       </c>
       <c r="Q24" s="44"/>
       <c r="R24" s="44"/>
@@ -19420,51 +19429,51 @@
         <v>J</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="57">
+        <v>163</v>
+      </c>
+      <c r="F26" s="57" t="n">
         <f>AVERAGEIF(L26:P26,"&lt;100")</f>
         <v>14.603999900817872</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="44" t="n">
         <f>Financials!D81</f>
         <v>17.200000762939453</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="44" t="n">
         <f>Financials!E81</f>
         <v>19.780000686645508</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="44" t="n">
         <f>Financials!F81</f>
         <v>21.100000381469727</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="44" t="n">
         <f>Financials!G81</f>
         <v>22.149999618530273</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="44" t="n">
         <f>Financials!H81</f>
-        <v>19.090000152587891</v>
-      </c>
-      <c r="L26" s="44">
+        <v>19.09000015258789</v>
+      </c>
+      <c r="L26" s="44" t="n">
         <f>Financials!I81</f>
         <v>13.140000343322754</v>
       </c>
-      <c r="M26" s="44">
+      <c r="M26" s="44" t="n">
         <f>Financials!J81</f>
         <v>32.029998779296875</v>
       </c>
-      <c r="N26" s="44">
+      <c r="N26" s="44" t="n">
         <f>Financials!K81</f>
         <v>13.760000228881836</v>
       </c>
-      <c r="O26" s="44">
+      <c r="O26" s="44" t="n">
         <f>Financials!L81</f>
         <v>6.630000114440918</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="44" t="n">
         <f>Financials!M81</f>
-        <v>7.4600000381469727</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="Q26" s="44"/>
       <c r="R26" s="44"/>
@@ -19502,49 +19511,49 @@
         <v>J</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="57">
+        <v>164</v>
+      </c>
+      <c r="F28" s="57" t="n">
         <f>AVERAGEIF(L28:P28, "&lt;100")</f>
         <v>8.139999961853027</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="44" t="n">
         <f>Financials!D82</f>
-        <v>5.9800000190734863</v>
-      </c>
-      <c r="H28" s="44">
+        <v>5.980000019073486</v>
+      </c>
+      <c r="H28" s="44" t="n">
         <f>Financials!E82</f>
         <v>6.619999885559082</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="44" t="n">
         <f>Financials!F82</f>
-        <v>5.0999999046325684</v>
-      </c>
-      <c r="J28" s="44">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="J28" s="44" t="n">
         <f>Financials!G82</f>
-        <v>8.3400001525878906</v>
-      </c>
-      <c r="K28" s="44">
+        <v>8.34000015258789</v>
+      </c>
+      <c r="K28" s="44" t="n">
         <f>Financials!H82</f>
         <v>8.619999885559082</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="44" t="n">
         <f>Financials!I82</f>
-        <v>8.6999998092651367</v>
-      </c>
-      <c r="M28" s="44">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="M28" s="44" t="n">
         <f>Financials!J82</f>
-        <v>7.5900001525878906</v>
-      </c>
-      <c r="N28" s="44">
+        <v>7.590000152587891</v>
+      </c>
+      <c r="N28" s="44" t="n">
         <f>Financials!K82</f>
-        <v>6.6599998474121094</v>
-      </c>
-      <c r="O28" s="44">
+        <v>6.659999847412109</v>
+      </c>
+      <c r="O28" s="44" t="n">
         <f>Financials!L82</f>
-        <v>6.5799999237060547</v>
-      </c>
-      <c r="P28" s="44">
+        <v>6.579999923706055</v>
+      </c>
+      <c r="P28" s="44" t="n">
         <f>Financials!M82</f>
         <v>11.170000076293945</v>
       </c>
@@ -19582,7 +19591,7 @@
       <c r="E30" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="127">
+      <c r="F30" s="127" t="n">
         <f>Financials!$C$83</f>
         <v>1.9900000095367432</v>
       </c>
@@ -19618,7 +19627,7 @@
       <c r="E32" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="52" t="n">
         <f>Financials!D63</f>
         <v>-1.7034161810570312</v>
       </c>
@@ -19635,9 +19644,9 @@
       <c r="E33" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="52" t="n">
         <f>Financials!D64</f>
-        <v>-1.8801330526459421</v>
+        <v>-1.880133052645942</v>
       </c>
     </row>
     <row r="34" spans="2:17">
@@ -19659,9 +19668,9 @@
       <c r="E35" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="52" t="n">
         <f>Financials!D69</f>
-        <v>7.5181564583320259E-2</v>
+        <v>0.07518156458332026</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="18.5">
@@ -19676,7 +19685,7 @@
       <c r="E36" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="52" t="n">
         <f>Financials!D70</f>
         <v>0.12832735434671894</v>
       </c>
@@ -19701,9 +19710,9 @@
       <c r="E38" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="52" t="n">
         <f>Financials!D65</f>
-        <v>8.3363417168461851E-2</v>
+        <v>0.08336341716846185</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="18.5">
@@ -19718,9 +19727,9 @@
       <c r="E39" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="52" t="n">
         <f>Financials!D66</f>
-        <v>0.14456344772713159</v>
+        <v>0.1445634477271316</v>
       </c>
     </row>
     <row r="40" spans="2:17">
@@ -19742,9 +19751,9 @@
       <c r="E41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="52" t="n">
         <f>Financials!D67</f>
-        <v>5.7236670649805754E-2</v>
+        <v>0.057236670649805754</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="18.5">
@@ -19759,9 +19768,9 @@
       <c r="E42" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="52" t="n">
         <f>Financials!D68</f>
-        <v>3.4562325727179655E-2</v>
+        <v>0.034562325727179655</v>
       </c>
     </row>
     <row r="43" spans="2:17">
@@ -19781,9 +19790,9 @@
       <c r="E44" s="101">
         <v>0.75</v>
       </c>
-      <c r="F44" s="103">
+      <c r="F44" s="103" t="n">
         <f>Financials!$D$73</f>
-        <v>-0.30276293709428048</v>
+        <v>-0.3027629370942805</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="18.5">
@@ -19798,7 +19807,7 @@
       <c r="E45" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="103">
+      <c r="F45" s="103" t="n">
         <f>Financials!D71</f>
         <v>0.10831621959108628</v>
       </c>
@@ -19815,7 +19824,7 @@
       <c r="E46" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="103">
+      <c r="F46" s="103" t="n">
         <f>Financials!D72</f>
         <v>0.1251026669916562</v>
       </c>
@@ -19832,7 +19841,7 @@
       <c r="E47" s="101">
         <v>0.12</v>
       </c>
-      <c r="F47" s="102">
+      <c r="F47" s="102" t="n">
         <f>F45+F46</f>
         <v>0.23341888658274249</v>
       </c>
@@ -19856,13 +19865,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.1796875"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19875,14 +19884,14 @@
   <dimension ref="B2:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="61.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="61.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.6328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="20" thickBot="1">
@@ -19910,7 +19919,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="P4" t="s">
+      <c r="P4" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -19918,56 +19927,56 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="58">
-        <v>7.4099998474121094</v>
+      <c r="C5" s="58" t="n">
+        <v>7.409999847412109</v>
       </c>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59">
-        <v>2444000</v>
+      <c r="C6" s="59" t="n">
+        <v>2444000.0</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="59">
-        <v>9057000</v>
+      <c r="C7" s="59" t="n">
+        <v>9057000.0</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="59">
-        <v>340000</v>
+      <c r="C8" s="59" t="n">
+        <v>340000.0</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="59">
-        <v>206000</v>
+      <c r="C9" s="59" t="n">
+        <v>206000.0</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="59">
-        <v>-10000</v>
+      <c r="C10" s="59" t="n">
+        <v>-10000.0</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="60">
-        <v>1.1000000238418579</v>
+      <c r="C11" s="60" t="n">
+        <v>1.100000023841858</v>
       </c>
       <c r="G11" s="33"/>
     </row>
@@ -19992,7 +20001,7 @@
       <c r="C15" s="14">
         <v>0.12</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -20000,25 +20009,25 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="11" t="n">
         <f>SUM(C6:C7)</f>
-        <v>11501000</v>
+        <v>1.1501E7</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="12" t="n">
         <f>C8/C17</f>
-        <v>2.9562646726371621E-2</v>
+        <v>0.02956264672637162</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="18" thickTop="1" thickBot="1">
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="12" t="n">
         <f>C14+C11*(C15-C14)</f>
         <v>0.12870000207424181</v>
       </c>
@@ -20027,11 +20036,11 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="12" t="n">
         <f>C8/C17</f>
-        <v>2.9562646726371621E-2</v>
-      </c>
-      <c r="K20" t="s">
+        <v>0.02956264672637162</v>
+      </c>
+      <c r="K20" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -20039,11 +20048,11 @@
       <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="11" t="n">
         <f>C17+C5*1000000</f>
-        <v>18910999.847412109</v>
-      </c>
-      <c r="K21" t="s">
+        <v>1.891099984741211E7</v>
+      </c>
+      <c r="K21" t="s" s="0">
         <v>11</v>
       </c>
     </row>
@@ -20051,11 +20060,11 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="12" t="n">
         <f>C5*1000000/C21</f>
         <v>0.39183543478406513</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" t="s" s="0">
         <v>12</v>
       </c>
     </row>
@@ -20063,9 +20072,9 @@
       <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="12" t="n">
         <f>C17/C21</f>
-        <v>0.60816456521593543</v>
+        <v>0.6081645652159354</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="14.5" customHeight="1" thickTop="1">
@@ -20079,9 +20088,9 @@
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="17" t="n">
         <f>C23*C20*(1-C18)+C22*C19</f>
-        <v>6.7876669991130206E-2</v>
+        <v>0.0678766699911302</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -20114,20 +20123,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.90625"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="9" max="12" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.81640625"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="20" thickBot="1">
@@ -20140,9 +20149,9 @@
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="20" t="n">
         <f>WACC!C25</f>
-        <v>6.7876669991130206E-2</v>
+        <v>0.0678766699911302</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -20157,33 +20166,33 @@
       <c r="B6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="65">
-        <v>0</v>
+      <c r="C6" s="65" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13">
-        <f>AVERAGE(C28:L28)</f>
-        <v>7.7008642117546128E-2</v>
+      <c r="C7" s="13" t="n">
+        <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
+        <v>0.07700864211754613</v>
       </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="13" t="n">
         <f>AVERAGEIF(C29:L29,"&lt;2")</f>
-        <v>0.71444351639606829</v>
+        <v>0.89834037476185</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="66" t="n">
         <v>11.529999732971191</v>
       </c>
     </row>
@@ -20191,16 +20200,16 @@
       <c r="B10" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="67">
-        <v>0.01</v>
+      <c r="C10" s="67" t="n">
+        <v>0.009999999776482582</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="59">
-        <v>209690320</v>
+      <c r="C11" s="59" t="n">
+        <v>2.0969032E8</v>
       </c>
     </row>
     <row r="12" spans="2:12">
@@ -20250,45 +20259,45 @@
       <c r="B16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="21" t="n">
         <f>Financials!D3</f>
         <v>7194.7001953125</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="21" t="n">
         <f>Financials!E3</f>
         <v>8277.2998046875</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="21" t="n">
         <f>Financials!F3</f>
         <v>6691.10009765625</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="21" t="n">
         <f>Financials!G3</f>
         <v>5685.7001953125</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>Financials!H3</f>
         <v>6120.7001953125</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="21" t="n">
         <f>Financials!I3</f>
-        <v>7651</v>
-      </c>
-      <c r="I16" s="21">
+        <v>7651.0</v>
+      </c>
+      <c r="I16" s="21" t="n">
         <f>Financials!J3</f>
-        <v>7320</v>
-      </c>
-      <c r="J16" s="21">
+        <v>7320.0</v>
+      </c>
+      <c r="J16" s="21" t="n">
         <f>Financials!K3</f>
-        <v>6559</v>
-      </c>
-      <c r="K16" s="21">
+        <v>6559.0</v>
+      </c>
+      <c r="K16" s="21" t="n">
         <f>Financials!L3</f>
-        <v>7447</v>
-      </c>
-      <c r="L16" s="21">
+        <v>7447.0</v>
+      </c>
+      <c r="L16" s="21" t="n">
         <f>Financials!M3</f>
-        <v>10106</v>
+        <v>10106.0</v>
       </c>
     </row>
     <row r="17" spans="2:12">
@@ -20296,41 +20305,41 @@
         <v>27</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="20">
+      <c r="D17" s="20" t="n">
         <f t="shared" ref="D17:L17" si="0">(D16-C16)/C16</f>
         <v>0.15047181675204988</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>-0.19163250630754883</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>-0.15025928287874818</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>7.6507727290761829E-2</v>
-      </c>
-      <c r="H17" s="20">
+        <v>0.07650772729076183</v>
+      </c>
+      <c r="H17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>0.25002038261234727</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>-4.3262318651156713E-2</v>
-      </c>
-      <c r="J17" s="20">
+        <v>-0.04326231865115671</v>
+      </c>
+      <c r="J17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>-0.10396174863387977</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="20" t="n">
         <f t="shared" si="0"/>
         <v>0.13538649184326879</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="20" t="n">
         <f t="shared" si="0"/>
-        <v>0.35705653283201289</v>
+        <v>0.3570565328320129</v>
       </c>
     </row>
     <row r="18" spans="2:12">
@@ -20350,45 +20359,45 @@
       <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="21" t="n">
         <f>Financials!D6</f>
-        <v>278.10000610351563</v>
-      </c>
-      <c r="D19" s="21">
+        <v>278.1000061035156</v>
+      </c>
+      <c r="D19" s="21" t="n">
         <f>Financials!E6</f>
         <v>337.20001220703125</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="21" t="n">
         <f>Financials!F6</f>
-        <v>281</v>
-      </c>
-      <c r="F19" s="21">
+        <v>281.0</v>
+      </c>
+      <c r="F19" s="21" t="n">
         <f>Financials!G6</f>
         <v>364.70001220703125</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="21" t="n">
         <f>Financials!H6</f>
-        <v>436.60000610351563</v>
-      </c>
-      <c r="H19" s="21">
+        <v>436.6000061035156</v>
+      </c>
+      <c r="H19" s="21" t="n">
         <f>Financials!I6</f>
-        <v>719</v>
-      </c>
-      <c r="I19" s="21">
+        <v>719.0</v>
+      </c>
+      <c r="I19" s="21" t="n">
         <f>Financials!J6</f>
-        <v>256</v>
-      </c>
-      <c r="J19" s="21">
+        <v>256.0</v>
+      </c>
+      <c r="J19" s="21" t="n">
         <f>Financials!K6</f>
-        <v>532</v>
-      </c>
-      <c r="K19" s="21">
+        <v>532.0</v>
+      </c>
+      <c r="K19" s="21" t="n">
         <f>Financials!L6</f>
-        <v>1467</v>
-      </c>
-      <c r="L19" s="21">
+        <v>1467.0</v>
+      </c>
+      <c r="L19" s="21" t="n">
         <f>Financials!M6</f>
-        <v>1073</v>
+        <v>1073.0</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -20396,86 +20405,86 @@
         <v>27</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="20">
+      <c r="D20" s="20" t="n">
         <f>(D19-C19)/C19</f>
         <v>0.2125135016412659</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="20" t="n">
         <f t="shared" ref="E20:L20" si="1">(E19-D19)/D19</f>
-        <v>-0.16666669683429941</v>
-      </c>
-      <c r="F20" s="20">
+        <v>-0.1666666968342994</v>
+      </c>
+      <c r="F20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.29786481212466653</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>0.19714831776772354</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>0.64681628481133868</v>
-      </c>
-      <c r="I20" s="20">
+        <v>0.6468162848113387</v>
+      </c>
+      <c r="I20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>-0.64394993045897075</v>
-      </c>
-      <c r="J20" s="20">
+        <v>-0.6439499304589708</v>
+      </c>
+      <c r="J20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>1.078125</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="20" t="n">
         <f t="shared" si="1"/>
         <v>1.7575187969924813</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="20" t="n">
         <f t="shared" si="1"/>
-        <v>-0.26857532379004773</v>
+        <v>-0.2685753237900477</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="25" t="n">
         <f>Financials!D20</f>
         <v>315.5</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="25" t="n">
         <f>Financials!E20</f>
         <v>548.5999755859375</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="25" t="n">
         <f>Financials!F20</f>
-        <v>673.20001220703125</v>
-      </c>
-      <c r="F22" s="25">
+        <v>673.2000122070312</v>
+      </c>
+      <c r="F22" s="25" t="n">
         <f>Financials!G20</f>
-        <v>405.89999389648438</v>
-      </c>
-      <c r="G22" s="25">
+        <v>405.8999938964844</v>
+      </c>
+      <c r="G22" s="25" t="n">
         <f>Financials!H20</f>
         <v>325.5</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="25" t="n">
         <f>Financials!I20</f>
-        <v>511</v>
-      </c>
-      <c r="I22" s="25">
+        <v>511.0</v>
+      </c>
+      <c r="I22" s="25" t="n">
         <f>Financials!J20</f>
-        <v>373</v>
-      </c>
-      <c r="J22" s="25">
+        <v>373.0</v>
+      </c>
+      <c r="J22" s="25" t="n">
         <f>Financials!K20</f>
-        <v>447</v>
-      </c>
-      <c r="K22" s="25">
+        <v>447.0</v>
+      </c>
+      <c r="K22" s="25" t="n">
         <f>Financials!L20</f>
-        <v>791</v>
-      </c>
-      <c r="L22" s="25">
+        <v>791.0</v>
+      </c>
+      <c r="L22" s="25" t="n">
         <f>Financials!M20</f>
-        <v>-88</v>
+        <v>-88.0</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -20483,39 +20492,39 @@
         <v>27</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="26">
+      <c r="D23" s="26" t="n">
         <f>(D22-C22)/C22</f>
-        <v>0.73882718093799682</v>
-      </c>
-      <c r="E23" s="26">
+        <v>0.7388271809379968</v>
+      </c>
+      <c r="E23" s="26" t="n">
         <f t="shared" ref="E23:L23" si="2">(E22-D22)/D22</f>
         <v>0.22712366417445357</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-0.39705884352887311</v>
-      </c>
-      <c r="G23" s="26">
+        <v>-0.3970588435288731</v>
+      </c>
+      <c r="G23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>-0.19807833236131725</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>0.56989247311827962</v>
-      </c>
-      <c r="I23" s="26">
+        <v>0.5698924731182796</v>
+      </c>
+      <c r="I23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>-0.27005870841487278</v>
-      </c>
-      <c r="J23" s="26">
+        <v>-0.2700587084148728</v>
+      </c>
+      <c r="J23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>0.19839142091152814</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="26" t="n">
         <f t="shared" si="2"/>
-        <v>0.76957494407158833</v>
-      </c>
-      <c r="L23" s="26">
+        <v>0.7695749440715883</v>
+      </c>
+      <c r="L23" s="26" t="n">
         <f t="shared" si="2"/>
         <v>-1.1112515802781289</v>
       </c>
@@ -20537,45 +20546,45 @@
       <c r="B25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="62" t="n">
         <f>Financials!D9</f>
         <v>1194.199951171875</v>
       </c>
-      <c r="D25" s="62">
+      <c r="D25" s="62" t="n">
         <f>Financials!E9</f>
         <v>1368.5</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="62" t="n">
         <f>Financials!F9</f>
-        <v>1209</v>
-      </c>
-      <c r="F25" s="62">
+        <v>1209.0</v>
+      </c>
+      <c r="F25" s="62" t="n">
         <f>Financials!G9</f>
         <v>1388.9010009765625</v>
       </c>
-      <c r="G25" s="62">
+      <c r="G25" s="62" t="n">
         <f>Financials!H9</f>
         <v>1426.300048828125</v>
       </c>
-      <c r="H25" s="62">
+      <c r="H25" s="62" t="n">
         <f>Financials!I9</f>
-        <v>1520</v>
-      </c>
-      <c r="I25" s="62">
+        <v>1520.0</v>
+      </c>
+      <c r="I25" s="62" t="n">
         <f>Financials!J9</f>
-        <v>1065</v>
-      </c>
-      <c r="J25" s="62">
+        <v>1065.0</v>
+      </c>
+      <c r="J25" s="62" t="n">
         <f>Financials!K9</f>
-        <v>1466</v>
-      </c>
-      <c r="K25" s="62">
+        <v>1466.0</v>
+      </c>
+      <c r="K25" s="62" t="n">
         <f>Financials!L9</f>
-        <v>2852</v>
-      </c>
-      <c r="L25" s="62">
+        <v>2852.0</v>
+      </c>
+      <c r="L25" s="62" t="n">
         <f>Financials!M9</f>
-        <v>2184</v>
+        <v>2184.0</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -20583,39 +20592,39 @@
         <v>27</v>
       </c>
       <c r="C26" s="63"/>
-      <c r="D26" s="63">
+      <c r="D26" s="63" t="n">
         <f>Financials!E10</f>
         <v>0.14595549820369919</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="63" t="n">
         <f>Financials!F10</f>
         <v>-0.11655096821337231</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="63" t="n">
         <f>Financials!G10</f>
-        <v>0.14880148964149131</v>
-      </c>
-      <c r="G26" s="63">
+        <v>0.1488014896414913</v>
+      </c>
+      <c r="G26" s="63" t="n">
         <f>Financials!H10</f>
-        <v>2.6927079630057572E-2</v>
-      </c>
-      <c r="H26" s="63">
+        <v>0.02692707963005757</v>
+      </c>
+      <c r="H26" s="63" t="n">
         <f>Financials!I10</f>
-        <v>6.5694417699039082E-2</v>
-      </c>
-      <c r="I26" s="63">
+        <v>0.06569441769903908</v>
+      </c>
+      <c r="I26" s="63" t="n">
         <f>Financials!J10</f>
-        <v>-0.29934210526315791</v>
-      </c>
-      <c r="J26" s="63">
+        <v>-0.2993421052631579</v>
+      </c>
+      <c r="J26" s="63" t="n">
         <f>Financials!K10</f>
         <v>0.37652582159624415</v>
       </c>
-      <c r="K26" s="63">
+      <c r="K26" s="63" t="n">
         <f>Financials!L10</f>
-        <v>0.94542974079126874</v>
-      </c>
-      <c r="L26" s="63">
+        <v>0.9454297407912687</v>
+      </c>
+      <c r="L26" s="63" t="n">
         <f>Financials!M10</f>
         <v>-0.23422159887798036</v>
       </c>
@@ -20624,43 +20633,43 @@
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="24" t="n">
         <f t="shared" ref="C28:L28" si="3">C19/C16</f>
-        <v>3.8653453035430725E-2</v>
-      </c>
-      <c r="D28" s="24">
+        <v>0.038653453035430725</v>
+      </c>
+      <c r="D28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>4.0737924222108278E-2</v>
-      </c>
-      <c r="E28" s="24">
+        <v>0.04073792422210828</v>
+      </c>
+      <c r="E28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>4.1996083737923504E-2</v>
-      </c>
-      <c r="F28" s="24">
+        <v>0.041996083737923504</v>
+      </c>
+      <c r="F28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>6.4143377188213876E-2</v>
-      </c>
-      <c r="G28" s="24">
+        <v>0.06414337718821388</v>
+      </c>
+      <c r="G28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>7.1331709146264577E-2</v>
-      </c>
-      <c r="H28" s="24">
+        <v>0.07133170914626458</v>
+      </c>
+      <c r="H28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>9.3974643837406877E-2</v>
-      </c>
-      <c r="I28" s="24">
+        <v>0.09397464383740688</v>
+      </c>
+      <c r="I28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>3.4972677595628415E-2</v>
-      </c>
-      <c r="J28" s="24">
+        <v>0.034972677595628415</v>
+      </c>
+      <c r="J28" s="24" t="n">
         <f t="shared" si="3"/>
-        <v>8.1109925293489857E-2</v>
-      </c>
-      <c r="K28" s="24">
+        <v>0.08110992529348986</v>
+      </c>
+      <c r="K28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.19699207734658253</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="24" t="n">
         <f t="shared" si="3"/>
         <v>0.10617454977241243</v>
       </c>
@@ -20669,36 +20678,45 @@
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="24" t="n">
         <f t="shared" ref="C29:L29" si="4">C22/C19</f>
-        <v>1.1344839736629231</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24">
+        <v>1.134483973662923</v>
+      </c>
+      <c r="D29" s="24" t="n">
+        <f t="shared" si="4"/>
+        <v>1.626927508084174</v>
+      </c>
+      <c r="E29" s="24" t="n">
+        <f t="shared" si="4"/>
+        <v>2.3957295808079393</v>
+      </c>
+      <c r="F29" s="24" t="n">
         <f t="shared" si="4"/>
         <v>1.1129695100368266</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.74553365884018186</v>
-      </c>
-      <c r="H29" s="24">
+        <v>0.7455336588401819</v>
+      </c>
+      <c r="H29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.71070931849791374</v>
-      </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24">
+        <v>0.7107093184979137</v>
+      </c>
+      <c r="I29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.84022556390977443</v>
-      </c>
-      <c r="K29" s="24">
+        <v>1.45703125</v>
+      </c>
+      <c r="J29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>0.53919563735514653</v>
-      </c>
-      <c r="L29" s="24">
+        <v>0.8402255639097744</v>
+      </c>
+      <c r="K29" s="24" t="n">
         <f t="shared" si="4"/>
-        <v>-8.2013047530288916E-2</v>
+        <v>0.5391956373551465</v>
+      </c>
+      <c r="L29" s="24" t="n">
+        <f t="shared" si="4"/>
+        <v>-0.08201304753028892</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="20" thickBot="1">
@@ -20745,87 +20763,87 @@
       <c r="B36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="21" t="n">
         <f>L16*(C37+1)</f>
-        <v>9978.6643998343534</v>
-      </c>
-      <c r="D36" s="21">
+        <v>9978.664399834353</v>
+      </c>
+      <c r="D36" s="21" t="n">
         <f>C36*(D37+1)</f>
         <v>10509.529373443658</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="21" t="n">
         <f>D36*(E37+1)</f>
         <v>10666.121359369736</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="21" t="n">
         <f t="shared" ref="F36:L36" si="5">E36*(F37+1)</f>
-        <v>10666.121359369699</v>
-      </c>
-      <c r="G36" s="21">
+        <v>10666.1213593697</v>
+      </c>
+      <c r="G36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>10666.121359369699</v>
-      </c>
-      <c r="H36" s="21">
+        <v>10666.1213593697</v>
+      </c>
+      <c r="H36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>10666.121359369699</v>
-      </c>
-      <c r="I36" s="21">
+        <v>10666.1213593697</v>
+      </c>
+      <c r="I36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>10666.121359369699</v>
-      </c>
-      <c r="J36" s="21">
+        <v>10666.1213593697</v>
+      </c>
+      <c r="J36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>10666.121359369699</v>
-      </c>
-      <c r="K36" s="21">
+        <v>10666.1213593697</v>
+      </c>
+      <c r="K36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>10666.121359369699</v>
-      </c>
-      <c r="L36" s="21">
+        <v>10666.1213593697</v>
+      </c>
+      <c r="L36" s="21" t="n">
         <f t="shared" si="5"/>
-        <v>10666.121359369699</v>
+        <v>10666.1213593697</v>
       </c>
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="68">
-        <v>-1.2600000016391277E-2</v>
-      </c>
-      <c r="D37" s="68">
-        <v>5.3200002759695053E-2</v>
-      </c>
-      <c r="E37" s="68">
-        <v>1.4899999834597111E-2</v>
-      </c>
-      <c r="F37" s="27">
+      <c r="C37" s="68" t="n">
+        <v>-0.012600000016391277</v>
+      </c>
+      <c r="D37" s="68" t="n">
+        <v>0.05320000275969505</v>
+      </c>
+      <c r="E37" s="68" t="n">
+        <v>0.01489999983459711</v>
+      </c>
+      <c r="F37" s="27" t="n">
         <f>C6</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="G37" s="27" t="n">
         <f>C6</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H37" s="27" t="n">
         <f>C6</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I37" s="27" t="n">
         <f>C6</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="27" t="n">
         <f>C6</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="27" t="n">
         <f>C6</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="27" t="n">
         <f>C6</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -20845,88 +20863,88 @@
       <c r="B39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="21" t="n">
         <f>C36*C7</f>
-        <v>768.44339557794137</v>
-      </c>
-      <c r="D39" s="21">
+        <v>768.4433955779414</v>
+      </c>
+      <c r="D39" s="21" t="n">
         <f>D36*C7</f>
-        <v>809.32458634336444</v>
-      </c>
-      <c r="E39" s="21">
+        <v>809.3245863433644</v>
+      </c>
+      <c r="E39" s="21" t="n">
         <f>E36*C7</f>
-        <v>821.38352254601557</v>
-      </c>
-      <c r="F39" s="21">
+        <v>821.3835225460156</v>
+      </c>
+      <c r="F39" s="21" t="n">
         <f>F36*C7</f>
-        <v>821.38352254601557</v>
-      </c>
-      <c r="G39" s="21">
+        <v>821.3835225460156</v>
+      </c>
+      <c r="G39" s="21" t="n">
         <f>G36*C7</f>
-        <v>821.38352254601557</v>
-      </c>
-      <c r="H39" s="21">
+        <v>821.3835225460156</v>
+      </c>
+      <c r="H39" s="21" t="n">
         <f>H36*C7</f>
-        <v>821.38352254601557</v>
-      </c>
-      <c r="I39" s="21">
+        <v>821.3835225460156</v>
+      </c>
+      <c r="I39" s="21" t="n">
         <f>I36*C7</f>
-        <v>821.38352254601557</v>
-      </c>
-      <c r="J39" s="21">
+        <v>821.3835225460156</v>
+      </c>
+      <c r="J39" s="21" t="n">
         <f>J36*C7</f>
-        <v>821.38352254601557</v>
-      </c>
-      <c r="K39" s="21">
+        <v>821.3835225460156</v>
+      </c>
+      <c r="K39" s="21" t="n">
         <f>K36*C7</f>
-        <v>821.38352254601557</v>
-      </c>
-      <c r="L39" s="21">
+        <v>821.3835225460156</v>
+      </c>
+      <c r="L39" s="21" t="n">
         <f>L36*C7</f>
-        <v>821.38352254601557</v>
+        <v>821.3835225460156</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="18"/>
-      <c r="C40" s="20">
+      <c r="C40" s="20" t="n">
         <f>(C39-L19)/L19</f>
-        <v>-0.28383653720601959</v>
-      </c>
-      <c r="D40" s="20">
+        <v>-0.2838365372060196</v>
+      </c>
+      <c r="D40" s="20" t="n">
         <f>(D39-C39)/C39</f>
-        <v>5.3200002759704428E-2</v>
-      </c>
-      <c r="E40" s="20">
+        <v>0.05320000275970443</v>
+      </c>
+      <c r="E40" s="20" t="n">
         <f t="shared" ref="E40:L40" si="6">(E39-D39)/D39</f>
-        <v>1.4899999834596618E-2</v>
-      </c>
-      <c r="F40" s="20">
+        <v>0.014899999834596618</v>
+      </c>
+      <c r="F40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="H40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="I40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="J40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="K40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="L40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -20946,180 +20964,180 @@
       <c r="B42" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="21" t="n">
         <f>C39*C8</f>
-        <v>549.00940168803936</v>
-      </c>
-      <c r="D42" s="21">
+        <v>690.3237279667561</v>
+      </c>
+      <c r="D42" s="21" t="n">
         <f>D39*C8</f>
-        <v>578.21670337294665</v>
-      </c>
-      <c r="E42" s="21">
+        <v>727.0489521996768</v>
+      </c>
+      <c r="E42" s="21" t="n">
         <f>E39*C8</f>
-        <v>586.83213215756462</v>
-      </c>
-      <c r="F42" s="21">
+        <v>737.8819814671965</v>
+      </c>
+      <c r="F42" s="21" t="n">
         <f>F39*C8</f>
-        <v>586.83213215756462</v>
-      </c>
-      <c r="G42" s="21">
+        <v>737.8819814671965</v>
+      </c>
+      <c r="G42" s="21" t="n">
         <f>G39*C8</f>
-        <v>586.83213215756462</v>
-      </c>
-      <c r="H42" s="21">
+        <v>737.8819814671965</v>
+      </c>
+      <c r="H42" s="21" t="n">
         <f>H39*C8</f>
-        <v>586.83213215756462</v>
-      </c>
-      <c r="I42" s="21">
+        <v>737.8819814671965</v>
+      </c>
+      <c r="I42" s="21" t="n">
         <f>I39*C8</f>
-        <v>586.83213215756462</v>
-      </c>
-      <c r="J42" s="21">
+        <v>737.8819814671965</v>
+      </c>
+      <c r="J42" s="21" t="n">
         <f>J39*C8</f>
-        <v>586.83213215756462</v>
-      </c>
-      <c r="K42" s="21">
+        <v>737.8819814671965</v>
+      </c>
+      <c r="K42" s="21" t="n">
         <f>K39*C8</f>
-        <v>586.83213215756462</v>
-      </c>
-      <c r="L42" s="21">
+        <v>737.8819814671965</v>
+      </c>
+      <c r="L42" s="21" t="n">
         <f>L39*C8</f>
-        <v>586.83213215756462</v>
+        <v>737.8819814671965</v>
       </c>
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="20" t="n">
         <f>(C42-L22)/L22</f>
-        <v>-7.2387432010004469</v>
-      </c>
-      <c r="D43" s="20">
+        <v>-8.844587817804046</v>
+      </c>
+      <c r="D43" s="20" t="n">
         <f>(D42-C42)/C42</f>
-        <v>5.3200002759704289E-2</v>
-      </c>
-      <c r="E43" s="20">
+        <v>0.053200002759704185</v>
+      </c>
+      <c r="E43" s="20" t="n">
         <f t="shared" ref="E43:L43" si="7">(E42-D42)/D42</f>
-        <v>1.4899999834596712E-2</v>
-      </c>
-      <c r="F43" s="20">
+        <v>0.014899999834597812</v>
+      </c>
+      <c r="F43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="H43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="I43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="J43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="K43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="21" t="n">
         <f>L25*(1+C46)</f>
-        <v>2205.84</v>
-      </c>
-      <c r="D45" s="21">
+        <v>2205.8399995118325</v>
+      </c>
+      <c r="D45" s="21" t="n">
         <f>C45*(1+D46)</f>
-        <v>2227.8984</v>
-      </c>
-      <c r="E45" s="21">
+        <v>2227.898399013899</v>
+      </c>
+      <c r="E45" s="21" t="n">
         <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>2250.1773840000001</v>
-      </c>
-      <c r="F45" s="21">
+        <v>2250.177382506059</v>
+      </c>
+      <c r="F45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>2272.6791578400002</v>
-      </c>
-      <c r="G45" s="21">
+        <v>2272.679155828161</v>
+      </c>
+      <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>2295.4059494184003</v>
-      </c>
-      <c r="H45" s="21">
+        <v>2295.405946878452</v>
+      </c>
+      <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>2318.3600089125844</v>
-      </c>
-      <c r="I45" s="21">
+        <v>2318.3600058341653</v>
+      </c>
+      <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>2341.5436090017101</v>
-      </c>
-      <c r="J45" s="21">
+        <v>2341.543605374312</v>
+      </c>
+      <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>2364.9590450917271</v>
-      </c>
-      <c r="K45" s="21">
+        <v>2364.9590409046714</v>
+      </c>
+      <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>2388.6086355426446</v>
-      </c>
-      <c r="L45" s="21">
+        <v>2388.608630785101</v>
+      </c>
+      <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>2412.494721898071</v>
+        <v>2412.4947165590493</v>
       </c>
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="20" t="n">
         <f>C10</f>
-        <v>0.01</v>
-      </c>
-      <c r="D46" s="20">
+        <v>0.009999999776482582</v>
+      </c>
+      <c r="D46" s="20" t="n">
         <f>C10</f>
-        <v>0.01</v>
-      </c>
-      <c r="E46" s="20">
+        <v>0.009999999776482582</v>
+      </c>
+      <c r="E46" s="20" t="n">
         <f>C10</f>
-        <v>0.01</v>
-      </c>
-      <c r="F46" s="20">
+        <v>0.009999999776482582</v>
+      </c>
+      <c r="F46" s="20" t="n">
         <f>C10</f>
-        <v>0.01</v>
-      </c>
-      <c r="G46" s="20">
+        <v>0.009999999776482582</v>
+      </c>
+      <c r="G46" s="20" t="n">
         <f>C10</f>
-        <v>0.01</v>
-      </c>
-      <c r="H46" s="20">
+        <v>0.009999999776482582</v>
+      </c>
+      <c r="H46" s="20" t="n">
         <f>C10</f>
-        <v>0.01</v>
-      </c>
-      <c r="I46" s="20">
+        <v>0.009999999776482582</v>
+      </c>
+      <c r="I46" s="20" t="n">
         <f>C10</f>
-        <v>0.01</v>
-      </c>
-      <c r="J46" s="20">
+        <v>0.009999999776482582</v>
+      </c>
+      <c r="J46" s="20" t="n">
         <f>C10</f>
-        <v>0.01</v>
-      </c>
-      <c r="K46" s="20">
+        <v>0.009999999776482582</v>
+      </c>
+      <c r="K46" s="20" t="n">
         <f>C10</f>
-        <v>0.01</v>
-      </c>
-      <c r="L46" s="20">
+        <v>0.009999999776482582</v>
+      </c>
+      <c r="L46" s="20" t="n">
         <f>C10</f>
-        <v>0.01</v>
+        <v>0.009999999776482582</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20" thickBot="1">
@@ -21169,45 +21187,45 @@
       <c r="B51" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="61">
+      <c r="C51" s="61" t="n">
         <f>POWER((1+C4),1)</f>
         <v>1.0678766699911302</v>
       </c>
-      <c r="D51" s="61">
+      <c r="D51" s="61" t="n">
         <f>POWER((1+C4),2)</f>
         <v>1.1403605823113452</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="61" t="n">
         <f>POWER((1+C4),3)</f>
         <v>1.2177644612277854</v>
       </c>
-      <c r="F51" s="61">
+      <c r="F51" s="61" t="n">
         <f>POWER((1+C4),4)</f>
         <v>1.3004222576894702</v>
       </c>
-      <c r="G51" s="61">
+      <c r="G51" s="61" t="n">
         <f>POWER((1+C4),5)</f>
         <v>1.3886905901237787</v>
       </c>
-      <c r="H51" s="61">
+      <c r="H51" s="61" t="n">
         <f>POWER((1+C4),6)</f>
         <v>1.4829502830293984</v>
       </c>
-      <c r="I51" s="61">
+      <c r="I51" s="61" t="n">
         <f>POWER((1+C4),7)</f>
         <v>1.5836080100038379</v>
       </c>
-      <c r="J51" s="61">
+      <c r="J51" s="61" t="n">
         <f>POWER((1+C4),8)</f>
         <v>1.6910980482941789</v>
       </c>
-      <c r="K51" s="61">
+      <c r="K51" s="61" t="n">
         <f>POWER((1+C4),9)</f>
-        <v>1.8058841524408871</v>
-      </c>
-      <c r="L51" s="61">
+        <v>1.805884152440887</v>
+      </c>
+      <c r="L51" s="61" t="n">
         <f>POWER((1+C4),10)</f>
-        <v>1.9284615550983291</v>
+        <v>1.928461555098329</v>
       </c>
     </row>
     <row r="52" spans="2:12">
@@ -21227,45 +21245,45 @@
       <c r="B53" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="21" t="n">
         <f t="shared" ref="C53:L53" si="9">C42/C51</f>
-        <v>514.11311541490966</v>
-      </c>
-      <c r="D53" s="21">
+        <v>646.445181701076</v>
+      </c>
+      <c r="D53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>507.04725535232501</v>
-      </c>
-      <c r="E53" s="21">
+        <v>637.5605781866393</v>
+      </c>
+      <c r="E53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>481.89296932339732</v>
-      </c>
-      <c r="F53" s="21">
+        <v>605.9316107182502</v>
+      </c>
+      <c r="F53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>451.26275614523905</v>
-      </c>
-      <c r="G53" s="21">
+        <v>567.4172193716767</v>
+      </c>
+      <c r="G53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>422.57946898398603</v>
-      </c>
-      <c r="H53" s="21">
+        <v>531.3508903386653</v>
+      </c>
+      <c r="H53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>395.71935679379152</v>
-      </c>
-      <c r="I53" s="21">
+        <v>497.57701921054104</v>
+      </c>
+      <c r="I53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>370.56653442675025</v>
-      </c>
-      <c r="J53" s="21">
+        <v>465.94989214875704</v>
+      </c>
+      <c r="J53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>347.01248265853411</v>
-      </c>
-      <c r="K53" s="21">
+        <v>436.3330572177661</v>
+      </c>
+      <c r="K53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>324.95557999353656</v>
-      </c>
-      <c r="L53" s="21">
+        <v>408.59873567739794</v>
+      </c>
+      <c r="L53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>304.30066422954593</v>
+        <v>382.62727069483805</v>
       </c>
     </row>
     <row r="54" spans="2:12">
@@ -21285,7 +21303,7 @@
       <c r="B55" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="74">
+      <c r="C55" s="74" t="n">
         <f>POWER((1+C4),11)</f>
         <v>2.05935910366432</v>
       </c>
@@ -21344,18 +21362,18 @@
       <c r="B59" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="25" t="n">
         <f>L53*(1+C5)/(C4-C5)</f>
-        <v>7274.5430300396056</v>
+        <v>9147.001214024807</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="15" thickBot="1">
       <c r="B60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="23" t="n">
         <f>C59/C55</f>
-        <v>3532.4305591461198</v>
+        <v>4441.673721571481</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15" thickTop="1"/>
@@ -21363,9 +21381,9 @@
       <c r="B62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="71">
+      <c r="C62" s="71" t="n">
         <f>(SUM(C53:L53)+C59)</f>
-        <v>11393.99321336162</v>
+        <v>14326.792669290415</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="15" thickTop="1">
@@ -21375,9 +21393,9 @@
       <c r="B64" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="70">
+      <c r="C64" s="70" t="n">
         <f>C62/(C11/1000000)</f>
-        <v>54.337239856191836</v>
+        <v>68.32357673587603</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="30"/>
@@ -21414,18 +21432,18 @@
       <c r="B69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="25">
+      <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>27816.063499279167</v>
+        <v>27816.063437720277</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
       <c r="B70" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>13507.145718191967</v>
+        <v>13507.145688299723</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21436,9 +21454,9 @@
       <c r="B72" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="72">
+      <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>17626.595901513982</v>
+        <v>18686.93714356533</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21446,9 +21464,9 @@
       <c r="B74" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="70">
+      <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>84.06013163370622</v>
+        <v>89.11683259182064</v>
       </c>
     </row>
   </sheetData>
@@ -21472,7 +21490,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="29.90625"/>
   </cols>
   <sheetData>
     <row r="13" spans="2:3" ht="20" thickBot="1">
@@ -21486,15 +21504,15 @@
       <c r="B15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="78">
-        <v>1</v>
+      <c r="C15" s="78" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>7</v>
       </c>
     </row>
@@ -21502,15 +21520,15 @@
       <c r="B17" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="78">
-        <v>6</v>
+      <c r="C17" s="78" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>4.42</v>
       </c>
       <c r="D18" s="77" t="s">
@@ -21524,7 +21542,7 @@
       <c r="B20" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="79" t="n">
         <f>(C15*(C16+C17)*4.4)/C18</f>
         <v>12.941176470588236</v>
       </c>
@@ -21544,23 +21562,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="22.54296875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="6.81640625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="117" t="n">
         <v>1.4299999475479126</v>
       </c>
     </row>
@@ -21637,7 +21655,7 @@
       <c r="O6" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="106">
+      <c r="P6" s="106" t="n">
         <f>C2</f>
         <v>1.4299999475479126</v>
       </c>
@@ -21646,47 +21664,47 @@
       <c r="B7" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="90" t="n">
         <f>P6*(1+P7)</f>
         <v>1.4800499459251713</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="90" t="n">
         <f>C7*(1+P7)</f>
-        <v>1.5318516942530931</v>
-      </c>
-      <c r="E7" s="90">
+        <v>1.531851694253093</v>
+      </c>
+      <c r="E7" s="90" t="n">
         <f>D7*(1+P7)</f>
         <v>1.5854665037802094</v>
       </c>
-      <c r="F7" s="90">
+      <c r="F7" s="90" t="n">
         <f>E7*(1+P7)</f>
         <v>1.6409578316487676</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="90" t="n">
         <f>F7*(1+P7)</f>
         <v>1.698391356000996</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="90" t="n">
         <f>G7*(1+P7)</f>
         <v>1.7578350537141123</v>
       </c>
-      <c r="I7" s="90">
+      <c r="I7" s="90" t="n">
         <f>H7*(1+P7)</f>
         <v>1.8193592808560388</v>
       </c>
-      <c r="J7" s="90">
+      <c r="J7" s="90" t="n">
         <f>I7*(1+P7)</f>
         <v>1.883036855957104</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="90" t="n">
         <f>J7*(1+P7)</f>
-        <v>1.9489431461961899</v>
-      </c>
-      <c r="L7" s="90">
+        <v>1.94894314619619</v>
+      </c>
+      <c r="L7" s="90" t="n">
         <f>K7*(1+P7)</f>
-        <v>2.0171561566034688</v>
-      </c>
-      <c r="M7" s="159">
+        <v>2.017156156603469</v>
+      </c>
+      <c r="M7" s="159" t="n">
         <f>L7*(1+P7)/(P8-P7)</f>
         <v>63.502679328869434</v>
       </c>
@@ -21694,65 +21712,65 @@
       <c r="O7" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P7" s="104">
-        <v>3.5000000149011612E-2</v>
+      <c r="P7" s="104" t="n">
+        <v>0.03500000014901161</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1">
       <c r="B8" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="90" t="n">
         <f>C7/(1+P8)</f>
         <v>1.3859746050426063</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="90" t="n">
         <f>D7/(1+P8)^2</f>
         <v>1.3433046687287653</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="90" t="n">
         <f>E7/(1+P8)^3</f>
         <v>1.3019484097784317</v>
       </c>
-      <c r="F8" s="90">
+      <c r="F8" s="90" t="n">
         <f>F7/(1+P8)^4</f>
         <v>1.2618653840671321</v>
       </c>
-      <c r="G8" s="90">
+      <c r="G8" s="90" t="n">
         <f>G7/(1+P8)^5</f>
         <v>1.2230163926217827</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H8" s="90" t="n">
         <f>H7/(1+P8)^6</f>
         <v>1.1853634432862914</v>
       </c>
-      <c r="I8" s="90">
+      <c r="I8" s="90" t="n">
         <f>I7/(1+P8)^7</f>
         <v>1.1488697135673294</v>
       </c>
-      <c r="J8" s="90">
+      <c r="J8" s="90" t="n">
         <f>J7/(1+P8)^8</f>
         <v>1.1134995146239626</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="90" t="n">
         <f>K7/(1+P8)^9</f>
         <v>1.0792182563659674</v>
       </c>
-      <c r="L8" s="90">
+      <c r="L8" s="90" t="n">
         <f>L7/(1+P8)^10</f>
         <v>1.0459924136266319</v>
       </c>
-      <c r="M8" s="159">
+      <c r="M8" s="159" t="n">
         <f>M7/POWER((1+P8),10)</f>
-        <v>32.929191230691387</v>
+        <v>32.92919123069139</v>
       </c>
       <c r="N8" s="160"/>
       <c r="O8" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="105">
+      <c r="P8" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>6.7876669991130206E-2</v>
+        <v>0.0678766699911302</v>
       </c>
     </row>
     <row r="9" spans="2:16">
@@ -21763,9 +21781,9 @@
       <c r="B10" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="95" t="n">
         <f>SUM(C8:N8)*(1-P9)</f>
-        <v>45.018244032400297</v>
+        <v>45.0182440324003</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -21858,7 +21876,7 @@
       <c r="O15" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="106">
+      <c r="P15" s="106" t="n">
         <f>C2</f>
         <v>1.4299999475479126</v>
       </c>
@@ -21867,47 +21885,47 @@
       <c r="B16" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="90">
+      <c r="C16" s="90" t="n">
         <f>P15*(1+P16)</f>
         <v>1.4871999441713064</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="90" t="n">
         <f>C16*(1+P16)</f>
         <v>1.5466879406085015</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="90" t="n">
         <f>D16*(1+P16)</f>
         <v>1.6085554568499927</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="90" t="n">
         <f>E16*(1+P16)</f>
         <v>1.6728976736858283</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="90" t="n">
         <f>F16*(1+P16)</f>
         <v>1.7398135791375755</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="90" t="n">
         <f>G16*(1+P16)</f>
         <v>1.809406120747568</v>
       </c>
-      <c r="I16" s="90">
+      <c r="I16" s="90" t="n">
         <f>H16*(1+P16)</f>
-        <v>1.8817823639597371</v>
-      </c>
-      <c r="J16" s="90">
+        <v>1.881782363959737</v>
+      </c>
+      <c r="J16" s="90" t="n">
         <f>I16*(1+P16)</f>
         <v>1.9570536568356844</v>
       </c>
-      <c r="K16" s="90">
+      <c r="K16" s="90" t="n">
         <f>J16*(1+P16)</f>
-        <v>2.0353358013593641</v>
-      </c>
-      <c r="L16" s="90">
+        <v>2.035335801359364</v>
+      </c>
+      <c r="L16" s="90" t="n">
         <f>K16*(1+P16)</f>
         <v>2.1167492315940017</v>
       </c>
-      <c r="M16" s="159">
+      <c r="M16" s="159" t="n">
         <f>L16*(1+P16)/(P17-P16)</f>
         <v>78.96994616146948</v>
       </c>
@@ -21915,65 +21933,65 @@
       <c r="O16" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="104">
-        <v>3.9999999105930328E-2</v>
+      <c r="P16" s="104" t="n">
+        <v>0.03999999910593033</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1">
       <c r="B17" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="90" t="n">
         <f>C16/(1+P17)</f>
         <v>1.3926701331378117</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="90" t="n">
         <f>D16/(1+P17)^2</f>
         <v>1.3563148048081264</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="90" t="n">
         <f>E16/(1+P17)^3</f>
         <v>1.3209085238274991</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="90" t="n">
         <f>F16/(1+P17)^4</f>
         <v>1.2864265155366974</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="90" t="n">
         <f>G16/(1+P17)^5</f>
         <v>1.2528446520131622</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="90" t="n">
         <f>H16/(1+P17)^6</f>
         <v>1.2201394351881303</v>
       </c>
-      <c r="I17" s="90">
+      <c r="I17" s="90" t="n">
         <f>I16/(1+P17)^7</f>
-        <v>1.1882879804044291</v>
-      </c>
-      <c r="J17" s="90">
+        <v>1.188287980404429</v>
+      </c>
+      <c r="J17" s="90" t="n">
         <f>J16/(1+P17)^8</f>
         <v>1.1572680004035076</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K17" s="90" t="n">
         <f>K16/(1+P17)^9</f>
         <v>1.1270577897304963</v>
       </c>
-      <c r="L17" s="90">
+      <c r="L17" s="90" t="n">
         <f>L16/(1+P17)^10</f>
         <v>1.097636209546355</v>
       </c>
-      <c r="M17" s="159">
+      <c r="M17" s="159" t="n">
         <f>M16/POWER((1+P17),10)</f>
-        <v>40.949712454829267</v>
+        <v>40.94971245482927</v>
       </c>
       <c r="N17" s="160"/>
       <c r="O17" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="105">
+      <c r="P17" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>6.7876669991130206E-2</v>
+        <v>0.0678766699911302</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -21984,9 +22002,9 @@
       <c r="B19" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="95">
+      <c r="C19" s="95" t="n">
         <f>SUM(C17:N17)*(1-P18)</f>
-        <v>53.349266499425497</v>
+        <v>53.3492664994255</v>
       </c>
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
@@ -22073,7 +22091,7 @@
       <c r="O24" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="106">
+      <c r="P24" s="106" t="n">
         <f>C2</f>
         <v>1.4299999475479126</v>
       </c>
@@ -22082,113 +22100,113 @@
       <c r="B25" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="90" t="n">
         <f>P24*(1+P25)</f>
-        <v>1.4943499477446061</v>
-      </c>
-      <c r="D25" s="90">
+        <v>1.494349947744606</v>
+      </c>
+      <c r="D25" s="90" t="n">
         <f>C25*(1+P25)</f>
         <v>1.5615956980652244</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="90" t="n">
         <f>D25*(1+P25)</f>
         <v>1.6318675072705067</v>
       </c>
-      <c r="F25" s="90">
+      <c r="F25" s="90" t="n">
         <f>E25*(1+P25)</f>
         <v>1.7053015480156906</v>
       </c>
-      <c r="G25" s="90">
+      <c r="G25" s="90" t="n">
         <f>F25*(1+P25)</f>
-        <v>1.7820401207257139</v>
-      </c>
-      <c r="H25" s="90">
+        <v>1.782040120725714</v>
+      </c>
+      <c r="H25" s="90" t="n">
         <f>G25*(1+P25)</f>
         <v>1.8622319293449041</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="90" t="n">
         <f>H25*(1+P25)</f>
         <v>1.9460323694953519</v>
       </c>
-      <c r="J25" s="90">
+      <c r="J25" s="90" t="n">
         <f>I25*(1+P25)</f>
         <v>2.033603829602419</v>
       </c>
-      <c r="K25" s="90">
+      <c r="K25" s="90" t="n">
         <f>J25*(1+P25)</f>
         <v>2.1251160055708973</v>
       </c>
-      <c r="L25" s="90">
+      <c r="L25" s="90" t="n">
         <f>K25*(1+P25)</f>
         <v>2.2207462296215956</v>
       </c>
-      <c r="M25" s="159">
+      <c r="M25" s="159" t="n">
         <f>L25*(1+P25)/(P26-P25)</f>
-        <v>101.44308573842819</v>
+        <v>101.4430857384282</v>
       </c>
       <c r="N25" s="160"/>
       <c r="O25" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="P25" s="104">
-        <v>4.5000001788139343E-2</v>
+      <c r="P25" s="104" t="n">
+        <v>0.04500000178813934</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1">
       <c r="B26" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="90">
+      <c r="C26" s="90" t="n">
         <f>C25/(1+P26)</f>
         <v>1.3993656662215708</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="90" t="n">
         <f>D25/(1+P26)^2</f>
         <v>1.3693876500887867</v>
       </c>
-      <c r="E26" s="90">
+      <c r="E26" s="90" t="n">
         <f>E25/(1+P26)^3</f>
         <v>1.3400518402591646</v>
       </c>
-      <c r="F26" s="90">
+      <c r="F26" s="90" t="n">
         <f>F25/(1+P26)^4</f>
         <v>1.3113444790199076</v>
       </c>
-      <c r="G26" s="90">
+      <c r="G26" s="90" t="n">
         <f>G25/(1+P26)^5</f>
         <v>1.2832521033838569</v>
       </c>
-      <c r="H26" s="90">
+      <c r="H26" s="90" t="n">
         <f>H25/(1+P26)^6</f>
         <v>1.2557615387757275</v>
       </c>
-      <c r="I26" s="90">
+      <c r="I26" s="90" t="n">
         <f>I25/(1+P26)^7</f>
         <v>1.2288598928535548</v>
       </c>
-      <c r="J26" s="90">
+      <c r="J26" s="90" t="n">
         <f>J25/(1+P26)^8</f>
         <v>1.2025345494625386</v>
       </c>
-      <c r="K26" s="90">
+      <c r="K26" s="90" t="n">
         <f>K25/(1+P26)^9</f>
         <v>1.1767731627183982</v>
       </c>
-      <c r="L26" s="90">
+      <c r="L26" s="90" t="n">
         <f>L25/(1+P26)^10</f>
         <v>1.1515636512174943</v>
       </c>
-      <c r="M26" s="159">
+      <c r="M26" s="159" t="n">
         <f>M25/POWER((1+P26),10)</f>
-        <v>52.603115405769927</v>
+        <v>52.60311540576993</v>
       </c>
       <c r="N26" s="160"/>
       <c r="O26" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="P26" s="105">
+      <c r="P26" s="105" t="n">
         <f>WACC!$C$25</f>
-        <v>6.7876669991130206E-2</v>
+        <v>0.0678766699911302</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -22199,9 +22217,9 @@
       <c r="B28" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="95">
+      <c r="C28" s="95" t="n">
         <f>SUM(C26:N26)*(1-P27)</f>
-        <v>65.322009939770894</v>
+        <v>65.3220099397709</v>
       </c>
       <c r="D28" s="96"/>
       <c r="E28" s="96"/>
@@ -22244,12 +22262,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="62.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="110" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="11.26953125" style="110" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6328125" style="110" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="110" width="10.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="110" width="13.26953125"/>
+    <col min="5" max="11" bestFit="true" customWidth="true" style="110" width="11.26953125"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="110" width="11.6328125"/>
+    <col min="19" max="19" customWidth="true" width="11.7265625"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17.5" thickBot="1">
@@ -22292,38 +22310,38 @@
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="120">
+      <c r="C3" s="120" t="n">
         <v>6521.2998046875</v>
       </c>
-      <c r="D3" s="110">
+      <c r="D3" s="110" t="n">
         <v>7194.7001953125</v>
       </c>
-      <c r="E3" s="110">
+      <c r="E3" s="110" t="n">
         <v>8277.2998046875</v>
       </c>
-      <c r="F3" s="110">
+      <c r="F3" s="110" t="n">
         <v>6691.10009765625</v>
       </c>
-      <c r="G3" s="110">
+      <c r="G3" s="110" t="n">
         <v>5685.7001953125</v>
       </c>
-      <c r="H3" s="110">
+      <c r="H3" s="110" t="n">
         <v>6120.7001953125</v>
       </c>
-      <c r="I3" s="110">
-        <v>7651</v>
-      </c>
-      <c r="J3" s="110">
-        <v>7320</v>
-      </c>
-      <c r="K3" s="110">
-        <v>6559</v>
-      </c>
-      <c r="L3" s="110">
-        <v>7447</v>
-      </c>
-      <c r="M3" s="110">
-        <v>10106</v>
+      <c r="I3" s="110" t="n">
+        <v>7651.0</v>
+      </c>
+      <c r="J3" s="110" t="n">
+        <v>7320.0</v>
+      </c>
+      <c r="K3" s="110" t="n">
+        <v>6559.0</v>
+      </c>
+      <c r="L3" s="110" t="n">
+        <v>7447.0</v>
+      </c>
+      <c r="M3" s="110" t="n">
+        <v>10106.0</v>
       </c>
       <c r="Q3" s="107"/>
     </row>
@@ -22332,45 +22350,45 @@
         <v>27</v>
       </c>
       <c r="C4" s="113"/>
-      <c r="D4" s="121">
+      <c r="D4" s="121" t="n">
         <f t="shared" ref="D4:M4" si="0">(D3-C3)/C3</f>
         <v>0.10326168260826789</v>
       </c>
-      <c r="E4" s="121">
+      <c r="E4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.15047181675204988</v>
       </c>
-      <c r="F4" s="121">
+      <c r="F4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>-0.19163250630754883</v>
       </c>
-      <c r="G4" s="121">
+      <c r="G4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>-0.15025928287874818</v>
       </c>
-      <c r="H4" s="121">
+      <c r="H4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>7.6507727290761829E-2</v>
-      </c>
-      <c r="I4" s="121">
+        <v>0.07650772729076183</v>
+      </c>
+      <c r="I4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.25002038261234727</v>
       </c>
-      <c r="J4" s="121">
+      <c r="J4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>-4.3262318651156713E-2</v>
-      </c>
-      <c r="K4" s="121">
+        <v>-0.04326231865115671</v>
+      </c>
+      <c r="K4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>-0.10396174863387977</v>
       </c>
-      <c r="L4" s="121">
+      <c r="L4" s="121" t="n">
         <f t="shared" si="0"/>
         <v>0.13538649184326879</v>
       </c>
-      <c r="M4" s="121">
+      <c r="M4" s="121" t="n">
         <f t="shared" si="0"/>
-        <v>0.35705653283201289</v>
+        <v>0.3570565328320129</v>
       </c>
       <c r="Q4" s="107"/>
     </row>
@@ -22393,38 +22411,38 @@
       <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="110">
-        <v>210.19999694824219</v>
-      </c>
-      <c r="D6" s="110">
-        <v>278.10000610351563</v>
-      </c>
-      <c r="E6" s="110">
+      <c r="C6" s="110" t="n">
+        <v>210.1999969482422</v>
+      </c>
+      <c r="D6" s="110" t="n">
+        <v>278.1000061035156</v>
+      </c>
+      <c r="E6" s="110" t="n">
         <v>337.20001220703125</v>
       </c>
-      <c r="F6" s="110">
-        <v>281</v>
-      </c>
-      <c r="G6" s="110">
+      <c r="F6" s="110" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="G6" s="110" t="n">
         <v>364.70001220703125</v>
       </c>
-      <c r="H6" s="110">
-        <v>436.60000610351563</v>
-      </c>
-      <c r="I6" s="110">
-        <v>719</v>
-      </c>
-      <c r="J6" s="110">
-        <v>256</v>
-      </c>
-      <c r="K6" s="110">
-        <v>532</v>
-      </c>
-      <c r="L6" s="110">
-        <v>1467</v>
-      </c>
-      <c r="M6" s="110">
-        <v>1073</v>
+      <c r="H6" s="110" t="n">
+        <v>436.6000061035156</v>
+      </c>
+      <c r="I6" s="110" t="n">
+        <v>719.0</v>
+      </c>
+      <c r="J6" s="110" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="K6" s="110" t="n">
+        <v>532.0</v>
+      </c>
+      <c r="L6" s="110" t="n">
+        <v>1467.0</v>
+      </c>
+      <c r="M6" s="110" t="n">
+        <v>1073.0</v>
       </c>
       <c r="Q6" s="107"/>
     </row>
@@ -22433,45 +22451,45 @@
         <v>27</v>
       </c>
       <c r="C7" s="113"/>
-      <c r="D7" s="121">
+      <c r="D7" s="121" t="n">
         <f t="shared" ref="D7" si="1">(D6-C6)/C6</f>
         <v>0.3230257380640808</v>
       </c>
-      <c r="E7" s="121">
+      <c r="E7" s="121" t="n">
         <f t="shared" ref="E7" si="2">(E6-D6)/D6</f>
         <v>0.2125135016412659</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="121" t="n">
         <f t="shared" ref="F7" si="3">(F6-E6)/E6</f>
-        <v>-0.16666669683429941</v>
-      </c>
-      <c r="G7" s="121">
+        <v>-0.1666666968342994</v>
+      </c>
+      <c r="G7" s="121" t="n">
         <f t="shared" ref="G7" si="4">(G6-F6)/F6</f>
         <v>0.29786481212466653</v>
       </c>
-      <c r="H7" s="121">
+      <c r="H7" s="121" t="n">
         <f t="shared" ref="H7" si="5">(H6-G6)/G6</f>
         <v>0.19714831776772354</v>
       </c>
-      <c r="I7" s="121">
+      <c r="I7" s="121" t="n">
         <f t="shared" ref="I7" si="6">(I6-H6)/H6</f>
-        <v>0.64681628481133868</v>
-      </c>
-      <c r="J7" s="121">
+        <v>0.6468162848113387</v>
+      </c>
+      <c r="J7" s="121" t="n">
         <f t="shared" ref="J7" si="7">(J6-I6)/I6</f>
-        <v>-0.64394993045897075</v>
-      </c>
-      <c r="K7" s="121">
+        <v>-0.6439499304589708</v>
+      </c>
+      <c r="K7" s="121" t="n">
         <f t="shared" ref="K7" si="8">(K6-J6)/J6</f>
         <v>1.078125</v>
       </c>
-      <c r="L7" s="121">
+      <c r="L7" s="121" t="n">
         <f t="shared" ref="L7" si="9">(L6-K6)/K6</f>
         <v>1.7575187969924813</v>
       </c>
-      <c r="M7" s="121">
+      <c r="M7" s="121" t="n">
         <f t="shared" ref="M7" si="10">(M6-L6)/L6</f>
-        <v>-0.26857532379004773</v>
+        <v>-0.2685753237900477</v>
       </c>
       <c r="Q7" s="107"/>
     </row>
@@ -22492,38 +22510,38 @@
       <c r="B9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="110">
+      <c r="C9" s="110" t="n">
         <v>853.599609375</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D9" s="110" t="n">
         <v>1194.199951171875</v>
       </c>
-      <c r="E9" s="110">
+      <c r="E9" s="110" t="n">
         <v>1368.5</v>
       </c>
-      <c r="F9" s="110">
-        <v>1209</v>
-      </c>
-      <c r="G9" s="110">
+      <c r="F9" s="110" t="n">
+        <v>1209.0</v>
+      </c>
+      <c r="G9" s="110" t="n">
         <v>1388.9010009765625</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="110" t="n">
         <v>1426.300048828125</v>
       </c>
-      <c r="I9" s="110">
-        <v>1520</v>
-      </c>
-      <c r="J9" s="110">
-        <v>1065</v>
-      </c>
-      <c r="K9" s="110">
-        <v>1466</v>
-      </c>
-      <c r="L9" s="110">
-        <v>2852</v>
-      </c>
-      <c r="M9" s="110">
-        <v>2184</v>
+      <c r="I9" s="110" t="n">
+        <v>1520.0</v>
+      </c>
+      <c r="J9" s="110" t="n">
+        <v>1065.0</v>
+      </c>
+      <c r="K9" s="110" t="n">
+        <v>1466.0</v>
+      </c>
+      <c r="L9" s="110" t="n">
+        <v>2852.0</v>
+      </c>
+      <c r="M9" s="110" t="n">
+        <v>2184.0</v>
       </c>
       <c r="Q9" s="107"/>
     </row>
@@ -22532,43 +22550,43 @@
         <v>27</v>
       </c>
       <c r="C10" s="113"/>
-      <c r="D10" s="121">
+      <c r="D10" s="121" t="n">
         <f t="shared" ref="D10" si="11">(D9-C9)/C9</f>
-        <v>0.39901651553737277</v>
-      </c>
-      <c r="E10" s="121">
+        <v>0.3990165155373728</v>
+      </c>
+      <c r="E10" s="121" t="n">
         <f t="shared" ref="E10" si="12">(E9-D9)/D9</f>
         <v>0.14595549820369919</v>
       </c>
-      <c r="F10" s="121">
+      <c r="F10" s="121" t="n">
         <f t="shared" ref="F10" si="13">(F9-E9)/E9</f>
         <v>-0.11655096821337231</v>
       </c>
-      <c r="G10" s="121">
+      <c r="G10" s="121" t="n">
         <f t="shared" ref="G10" si="14">(G9-F9)/F9</f>
-        <v>0.14880148964149131</v>
-      </c>
-      <c r="H10" s="121">
+        <v>0.1488014896414913</v>
+      </c>
+      <c r="H10" s="121" t="n">
         <f t="shared" ref="H10" si="15">(H9-G9)/G9</f>
-        <v>2.6927079630057572E-2</v>
-      </c>
-      <c r="I10" s="121">
+        <v>0.02692707963005757</v>
+      </c>
+      <c r="I10" s="121" t="n">
         <f t="shared" ref="I10" si="16">(I9-H9)/H9</f>
-        <v>6.5694417699039082E-2</v>
-      </c>
-      <c r="J10" s="121">
+        <v>0.06569441769903908</v>
+      </c>
+      <c r="J10" s="121" t="n">
         <f t="shared" ref="J10" si="17">(J9-I9)/I9</f>
-        <v>-0.29934210526315791</v>
-      </c>
-      <c r="K10" s="121">
+        <v>-0.2993421052631579</v>
+      </c>
+      <c r="K10" s="121" t="n">
         <f t="shared" ref="K10" si="18">(K9-J9)/J9</f>
         <v>0.37652582159624415</v>
       </c>
-      <c r="L10" s="121">
+      <c r="L10" s="121" t="n">
         <f t="shared" ref="L10" si="19">(L9-K9)/K9</f>
-        <v>0.94542974079126874</v>
-      </c>
-      <c r="M10" s="121">
+        <v>0.9454297407912687</v>
+      </c>
+      <c r="M10" s="121" t="n">
         <f t="shared" ref="M10" si="20">(M9-L9)/L9</f>
         <v>-0.23422159887798036</v>
       </c>
@@ -22583,38 +22601,38 @@
       <c r="B12" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="110">
-        <v>170.14799499511719</v>
-      </c>
-      <c r="D12" s="110">
+      <c r="C12" s="110" t="n">
+        <v>170.1479949951172</v>
+      </c>
+      <c r="D12" s="110" t="n">
         <v>173.28199768066406</v>
       </c>
-      <c r="E12" s="110">
-        <v>175.23100280761719</v>
-      </c>
-      <c r="F12" s="110">
+      <c r="E12" s="110" t="n">
+        <v>175.2310028076172</v>
+      </c>
+      <c r="F12" s="110" t="n">
         <v>175.66700744628906</v>
       </c>
-      <c r="G12" s="110">
+      <c r="G12" s="110" t="n">
         <v>175.57200622558594</v>
       </c>
-      <c r="H12" s="110">
+      <c r="H12" s="110" t="n">
         <v>177.15899658203125</v>
       </c>
-      <c r="I12" s="110">
+      <c r="I12" s="110" t="n">
         <v>176.90499877929688</v>
       </c>
-      <c r="J12" s="110">
-        <v>181.11099243164063</v>
-      </c>
-      <c r="K12" s="110">
+      <c r="J12" s="110" t="n">
+        <v>181.11099243164062</v>
+      </c>
+      <c r="K12" s="110" t="n">
         <v>209.86900329589844</v>
       </c>
-      <c r="L12" s="110">
-        <v>212.12600708007813</v>
-      </c>
-      <c r="M12" s="110">
-        <v>215.82099914550781</v>
+      <c r="L12" s="110" t="n">
+        <v>212.12600708007812</v>
+      </c>
+      <c r="M12" s="110" t="n">
+        <v>215.8209991455078</v>
       </c>
       <c r="Q12" s="107"/>
     </row>
@@ -22623,45 +22641,45 @@
         <v>27</v>
       </c>
       <c r="C13" s="113"/>
-      <c r="D13" s="121">
+      <c r="D13" s="121" t="n">
         <f t="shared" ref="D13" si="21">(D12-C12)/C12</f>
-        <v>1.8419274853264191E-2</v>
-      </c>
-      <c r="E13" s="121">
+        <v>0.01841927485326419</v>
+      </c>
+      <c r="E13" s="121" t="n">
         <f t="shared" ref="E13" si="22">(E12-D12)/D12</f>
-        <v>1.1247591515795489E-2</v>
-      </c>
-      <c r="F13" s="121">
+        <v>0.01124759151579549</v>
+      </c>
+      <c r="F13" s="121" t="n">
         <f t="shared" ref="F13" si="23">(F12-E12)/E12</f>
-        <v>2.4881706529440838E-3</v>
-      </c>
-      <c r="G13" s="121">
+        <v>0.002488170652944084</v>
+      </c>
+      <c r="G13" s="121" t="n">
         <f t="shared" ref="G13" si="24">(G12-F12)/F12</f>
-        <v>-5.4080286380566974E-4</v>
-      </c>
-      <c r="H13" s="121">
+        <v>-5.408028638056697E-4</v>
+      </c>
+      <c r="H13" s="121" t="n">
         <f t="shared" ref="H13" si="25">(H12-G12)/G12</f>
-        <v>9.0389714770716043E-3</v>
-      </c>
-      <c r="I13" s="121">
+        <v>0.009038971477071604</v>
+      </c>
+      <c r="I13" s="121" t="n">
         <f t="shared" ref="I13" si="26">(I12-H12)/H12</f>
-        <v>-1.4337279372474028E-3</v>
-      </c>
-      <c r="J13" s="121">
+        <v>-0.0014337279372474028</v>
+      </c>
+      <c r="J13" s="121" t="n">
         <f t="shared" ref="J13" si="27">(J12-I12)/I12</f>
-        <v>2.377543699367738E-2</v>
-      </c>
-      <c r="K13" s="121">
+        <v>0.02377543699367738</v>
+      </c>
+      <c r="K13" s="121" t="n">
         <f t="shared" ref="K13" si="28">(K12-J12)/J12</f>
         <v>0.15878666710477166</v>
       </c>
-      <c r="L13" s="121">
+      <c r="L13" s="121" t="n">
         <f t="shared" ref="L13" si="29">(L12-K12)/K12</f>
-        <v>1.0754345561919407E-2</v>
-      </c>
-      <c r="M13" s="121">
+        <v>0.010754345561919407</v>
+      </c>
+      <c r="M13" s="121" t="n">
         <f t="shared" ref="M13" si="30">(M12-L12)/L12</f>
-        <v>1.7418854558624786E-2</v>
+        <v>0.017418854558624786</v>
       </c>
       <c r="Q13" s="107"/>
     </row>
@@ -22674,38 +22692,38 @@
       <c r="B15" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="110" t="n">
         <v>1.2400000095367432</v>
       </c>
-      <c r="D15" s="110">
-        <v>1.6000000238418579</v>
-      </c>
-      <c r="E15" s="110">
+      <c r="D15" s="110" t="n">
+        <v>1.600000023841858</v>
+      </c>
+      <c r="E15" s="110" t="n">
         <v>1.9199999570846558</v>
       </c>
-      <c r="F15" s="110">
-        <v>1.6000000238418579</v>
-      </c>
-      <c r="G15" s="110">
+      <c r="F15" s="110" t="n">
+        <v>1.600000023841858</v>
+      </c>
+      <c r="G15" s="110" t="n">
         <v>2.0799999237060547</v>
       </c>
-      <c r="H15" s="110">
+      <c r="H15" s="110" t="n">
         <v>2.4600000381469727</v>
       </c>
-      <c r="I15" s="110">
+      <c r="I15" s="110" t="n">
         <v>4.059999942779541</v>
       </c>
-      <c r="J15" s="110">
-        <v>1.4099999666213989</v>
-      </c>
-      <c r="K15" s="110">
+      <c r="J15" s="110" t="n">
+        <v>1.409999966621399</v>
+      </c>
+      <c r="K15" s="110" t="n">
         <v>2.5399999618530273</v>
       </c>
-      <c r="L15" s="110">
-        <v>6.9200000762939453</v>
-      </c>
-      <c r="M15" s="110">
-        <v>4.9699997901916504</v>
+      <c r="L15" s="110" t="n">
+        <v>6.920000076293945</v>
+      </c>
+      <c r="M15" s="110" t="n">
+        <v>4.96999979019165</v>
       </c>
       <c r="Q15" s="107"/>
     </row>
@@ -22713,45 +22731,45 @@
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="121">
+      <c r="D16" s="121" t="n">
         <f t="shared" ref="D16" si="31">(D15-C15)/C15</f>
         <v>0.29032258994869675</v>
       </c>
-      <c r="E16" s="121">
+      <c r="E16" s="121" t="n">
         <f t="shared" ref="E16" si="32">(E15-D15)/D15</f>
         <v>0.19999995529651693</v>
       </c>
-      <c r="F16" s="121">
+      <c r="F16" s="121" t="n">
         <f t="shared" ref="F16" si="33">(F15-E15)/E15</f>
         <v>-0.16666663562257986</v>
       </c>
-      <c r="G16" s="121">
+      <c r="G16" s="121" t="n">
         <f t="shared" ref="G16" si="34">(G15-F15)/F15</f>
-        <v>0.29999993294477539</v>
-      </c>
-      <c r="H16" s="121">
+        <v>0.2999999329447754</v>
+      </c>
+      <c r="H16" s="121" t="n">
         <f t="shared" ref="H16" si="35">(H15-G15)/G15</f>
         <v>0.18269236941309638</v>
       </c>
-      <c r="I16" s="121">
+      <c r="I16" s="121" t="n">
         <f t="shared" ref="I16" si="36">(I15-H15)/H15</f>
-        <v>0.65040645521200591</v>
-      </c>
-      <c r="J16" s="121">
+        <v>0.6504064552120059</v>
+      </c>
+      <c r="J16" s="121" t="n">
         <f t="shared" ref="J16" si="37">(J15-I15)/I15</f>
-        <v>-0.65270936293262805</v>
-      </c>
-      <c r="K16" s="121">
+        <v>-0.652709362932628</v>
+      </c>
+      <c r="K16" s="121" t="n">
         <f t="shared" ref="K16" si="38">(K15-J15)/J15</f>
-        <v>0.80141845530628086</v>
-      </c>
-      <c r="L16" s="121">
+        <v>0.8014184553062809</v>
+      </c>
+      <c r="L16" s="121" t="n">
         <f t="shared" ref="L16" si="39">(L15-K15)/K15</f>
         <v>1.7244095197724087</v>
       </c>
-      <c r="M16" s="121">
+      <c r="M16" s="121" t="n">
         <f t="shared" ref="M16" si="40">(M15-L15)/L15</f>
-        <v>-0.28179194575191752</v>
+        <v>-0.2817919457519175</v>
       </c>
       <c r="Q16" s="107"/>
     </row>
@@ -22799,38 +22817,38 @@
       <c r="B20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="110">
+      <c r="C20" s="110" t="n">
         <v>368.29998779296875</v>
       </c>
-      <c r="D20" s="128">
+      <c r="D20" s="128" t="n">
         <v>315.5</v>
       </c>
-      <c r="E20" s="128">
+      <c r="E20" s="128" t="n">
         <v>548.5999755859375</v>
       </c>
-      <c r="F20" s="128">
-        <v>673.20001220703125</v>
-      </c>
-      <c r="G20" s="128">
-        <v>405.89999389648438</v>
-      </c>
-      <c r="H20" s="128">
+      <c r="F20" s="128" t="n">
+        <v>673.2000122070312</v>
+      </c>
+      <c r="G20" s="128" t="n">
+        <v>405.8999938964844</v>
+      </c>
+      <c r="H20" s="128" t="n">
         <v>325.5</v>
       </c>
-      <c r="I20" s="128">
-        <v>511</v>
-      </c>
-      <c r="J20" s="128">
-        <v>373</v>
-      </c>
-      <c r="K20" s="128">
-        <v>447</v>
-      </c>
-      <c r="L20" s="128">
-        <v>791</v>
-      </c>
-      <c r="M20" s="128">
-        <v>-88</v>
+      <c r="I20" s="128" t="n">
+        <v>511.0</v>
+      </c>
+      <c r="J20" s="128" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="K20" s="128" t="n">
+        <v>447.0</v>
+      </c>
+      <c r="L20" s="128" t="n">
+        <v>791.0</v>
+      </c>
+      <c r="M20" s="128" t="n">
+        <v>-88.0</v>
       </c>
       <c r="O20" s="107"/>
       <c r="P20" s="107"/>
@@ -22859,40 +22877,41 @@
       <c r="B21" s="31" t="s">
         <v>27</v>
       </c>
+      <c r="C21" s="110"/>
       <c r="D21" s="129"/>
-      <c r="E21" s="131">
+      <c r="E21" s="131" t="n">
         <f t="shared" ref="E21" si="41">(E20-D20)/D20</f>
-        <v>0.73882718093799682</v>
-      </c>
-      <c r="F21" s="131">
+        <v>0.7388271809379968</v>
+      </c>
+      <c r="F21" s="131" t="n">
         <f t="shared" ref="F21" si="42">(F20-E20)/E20</f>
         <v>0.22712366417445357</v>
       </c>
-      <c r="G21" s="131">
+      <c r="G21" s="131" t="n">
         <f t="shared" ref="G21" si="43">(G20-F20)/F20</f>
-        <v>-0.39705884352887311</v>
-      </c>
-      <c r="H21" s="131">
+        <v>-0.3970588435288731</v>
+      </c>
+      <c r="H21" s="131" t="n">
         <f t="shared" ref="H21" si="44">(H20-G20)/G20</f>
         <v>-0.19807833236131725</v>
       </c>
-      <c r="I21" s="131">
+      <c r="I21" s="131" t="n">
         <f t="shared" ref="I21" si="45">(I20-H20)/H20</f>
-        <v>0.56989247311827962</v>
-      </c>
-      <c r="J21" s="131">
+        <v>0.5698924731182796</v>
+      </c>
+      <c r="J21" s="131" t="n">
         <f t="shared" ref="J21" si="46">(J20-I20)/I20</f>
-        <v>-0.27005870841487278</v>
-      </c>
-      <c r="K21" s="131">
+        <v>-0.2700587084148728</v>
+      </c>
+      <c r="K21" s="131" t="n">
         <f t="shared" ref="K21" si="47">(K20-J20)/J20</f>
         <v>0.19839142091152814</v>
       </c>
-      <c r="L21" s="131">
+      <c r="L21" s="131" t="n">
         <f t="shared" ref="L21" si="48">(L20-K20)/K20</f>
-        <v>0.76957494407158833</v>
-      </c>
-      <c r="M21" s="131">
+        <v>0.7695749440715883</v>
+      </c>
+      <c r="M21" s="131" t="n">
         <f t="shared" ref="M21" si="49">(M20-L20)/L20</f>
         <v>-1.1112515802781289</v>
       </c>
@@ -22957,38 +22976,38 @@
       <c r="B23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="113">
-        <v>119.09999847412109</v>
-      </c>
-      <c r="D23" s="130">
+      <c r="C23" s="113" t="n">
+        <v>119.0999984741211</v>
+      </c>
+      <c r="D23" s="130" t="n">
         <v>125.80000305175781</v>
       </c>
-      <c r="E23" s="130">
-        <v>136.10000610351563</v>
-      </c>
-      <c r="F23" s="130">
+      <c r="E23" s="130" t="n">
+        <v>136.10000610351562</v>
+      </c>
+      <c r="F23" s="130" t="n">
         <v>153.5</v>
       </c>
-      <c r="G23" s="130">
-        <v>160.69999694824219</v>
-      </c>
-      <c r="H23" s="130">
+      <c r="G23" s="130" t="n">
+        <v>160.6999969482422</v>
+      </c>
+      <c r="H23" s="130" t="n">
         <v>168.89999389648438</v>
       </c>
-      <c r="I23" s="130">
-        <v>177</v>
-      </c>
-      <c r="J23" s="130">
-        <v>200</v>
-      </c>
-      <c r="K23" s="130">
-        <v>273</v>
-      </c>
-      <c r="L23" s="130">
-        <v>282</v>
-      </c>
-      <c r="M23" s="130">
-        <v>296</v>
+      <c r="I23" s="130" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="J23" s="130" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="K23" s="130" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="L23" s="130" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="M23" s="130" t="n">
+        <v>296.0</v>
       </c>
       <c r="O23" s="107"/>
       <c r="P23" s="107"/>
@@ -23014,45 +23033,45 @@
       <c r="AJ23" s="107"/>
     </row>
     <row r="24" spans="2:36">
-      <c r="D24" s="121">
+      <c r="D24" s="121" t="n">
         <f t="shared" ref="D24" si="50">(D23-C23)/C23</f>
-        <v>5.6255286846981369E-2</v>
-      </c>
-      <c r="E24" s="121">
+        <v>0.05625528684698137</v>
+      </c>
+      <c r="E24" s="121" t="n">
         <f t="shared" ref="E24" si="51">(E23-D23)/D23</f>
-        <v>8.187601591329105E-2</v>
-      </c>
-      <c r="F24" s="121">
+        <v>0.08187601591329105</v>
+      </c>
+      <c r="F24" s="121" t="n">
         <f t="shared" ref="F24" si="52">(F23-E23)/E23</f>
         <v>0.12784712061842363</v>
       </c>
-      <c r="G24" s="121">
+      <c r="G24" s="121" t="n">
         <f t="shared" ref="G24" si="53">(G23-F23)/F23</f>
-        <v>4.6905517578125014E-2</v>
-      </c>
-      <c r="H24" s="121">
+        <v>0.046905517578125014</v>
+      </c>
+      <c r="H24" s="121" t="n">
         <f t="shared" ref="H24" si="54">(H23-G23)/G23</f>
-        <v>5.1026739912653711E-2</v>
-      </c>
-      <c r="I24" s="121">
+        <v>0.05102673991265371</v>
+      </c>
+      <c r="I24" s="121" t="n">
         <f t="shared" ref="I24" si="55">(I23-H23)/H23</f>
-        <v>4.7957409095467397E-2</v>
-      </c>
-      <c r="J24" s="121">
+        <v>0.0479574090954674</v>
+      </c>
+      <c r="J24" s="121" t="n">
         <f t="shared" ref="J24" si="56">(J23-I23)/I23</f>
         <v>0.12994350282485875</v>
       </c>
-      <c r="K24" s="121">
+      <c r="K24" s="121" t="n">
         <f t="shared" ref="K24" si="57">(K23-J23)/J23</f>
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="L24" s="121">
+        <v>0.365</v>
+      </c>
+      <c r="L24" s="121" t="n">
         <f t="shared" ref="L24" si="58">(L23-K23)/K23</f>
-        <v>3.2967032967032968E-2</v>
-      </c>
-      <c r="M24" s="121">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="M24" s="121" t="n">
         <f t="shared" ref="M24" si="59">(M23-L23)/L23</f>
-        <v>4.9645390070921988E-2</v>
+        <v>0.04964539007092199</v>
       </c>
       <c r="O24" s="107"/>
       <c r="P24" s="107"/>
@@ -23189,38 +23208,38 @@
       <c r="B28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="110">
+      <c r="C28" s="110" t="n">
         <v>1470.4000244140625</v>
       </c>
-      <c r="D28" s="110">
+      <c r="D28" s="110" t="n">
         <v>1627.300048828125</v>
       </c>
-      <c r="E28" s="110">
-        <v>1663</v>
-      </c>
-      <c r="F28" s="110">
+      <c r="E28" s="110" t="n">
+        <v>1663.0</v>
+      </c>
+      <c r="F28" s="110" t="n">
         <v>1459.800048828125</v>
       </c>
-      <c r="G28" s="110">
+      <c r="G28" s="110" t="n">
         <v>1423.800048828125</v>
       </c>
-      <c r="H28" s="110">
+      <c r="H28" s="110" t="n">
         <v>1697.5</v>
       </c>
-      <c r="I28" s="110">
+      <c r="I28" s="110" t="n">
         <v>1888.0999755859375</v>
       </c>
-      <c r="J28" s="110">
-        <v>1566</v>
-      </c>
-      <c r="K28" s="110">
-        <v>1543</v>
-      </c>
-      <c r="L28" s="110">
-        <v>3270</v>
-      </c>
-      <c r="M28" s="110">
-        <v>3802</v>
+      <c r="J28" s="110" t="n">
+        <v>1566.0</v>
+      </c>
+      <c r="K28" s="110" t="n">
+        <v>1543.0</v>
+      </c>
+      <c r="L28" s="110" t="n">
+        <v>3270.0</v>
+      </c>
+      <c r="M28" s="110" t="n">
+        <v>3802.0</v>
       </c>
       <c r="O28" s="107"/>
       <c r="P28" s="107"/>
@@ -23250,43 +23269,43 @@
         <v>27</v>
       </c>
       <c r="C29" s="113"/>
-      <c r="D29" s="121">
+      <c r="D29" s="121" t="n">
         <f t="shared" ref="D29" si="60">(D28-C28)/C28</f>
         <v>0.10670567315624611</v>
       </c>
-      <c r="E29" s="121">
+      <c r="E29" s="121" t="n">
         <f t="shared" ref="E29" si="61">(E28-D28)/D28</f>
-        <v>2.1938149143167333E-2</v>
-      </c>
-      <c r="F29" s="121">
+        <v>0.021938149143167333</v>
+      </c>
+      <c r="F29" s="121" t="n">
         <f t="shared" ref="F29" si="62">(F28-E28)/E28</f>
         <v>-0.12218878603239627</v>
       </c>
-      <c r="G29" s="121">
+      <c r="G29" s="121" t="n">
         <f t="shared" ref="G29" si="63">(G28-F28)/F28</f>
-        <v>-2.4660911628890121E-2</v>
-      </c>
-      <c r="H29" s="121">
+        <v>-0.02466091162889012</v>
+      </c>
+      <c r="H29" s="121" t="n">
         <f t="shared" ref="H29" si="64">(H28-G28)/G28</f>
         <v>0.19223201417723362</v>
       </c>
-      <c r="I29" s="121">
+      <c r="I29" s="121" t="n">
         <f t="shared" ref="I29" si="65">(I28-H28)/H28</f>
         <v>0.11228275439525066</v>
       </c>
-      <c r="J29" s="121">
+      <c r="J29" s="121" t="n">
         <f t="shared" ref="J29" si="66">(J28-I28)/I28</f>
-        <v>-0.17059476709435351</v>
-      </c>
-      <c r="K29" s="121">
+        <v>-0.1705947670943535</v>
+      </c>
+      <c r="K29" s="121" t="n">
         <f t="shared" ref="K29" si="67">(K28-J28)/J28</f>
-        <v>-1.4687100893997445E-2</v>
-      </c>
-      <c r="L29" s="121">
+        <v>-0.014687100893997445</v>
+      </c>
+      <c r="L29" s="121" t="n">
         <f t="shared" ref="L29" si="68">(L28-K28)/K28</f>
-        <v>1.1192482177576151</v>
-      </c>
-      <c r="M29" s="121">
+        <v>1.119248217757615</v>
+      </c>
+      <c r="M29" s="121" t="n">
         <f t="shared" ref="M29" si="69">(M28-L28)/L28</f>
         <v>0.16269113149847095</v>
       </c>
@@ -23341,38 +23360,38 @@
       <c r="B31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="110">
+      <c r="C31" s="110" t="n">
         <v>8206.5</v>
       </c>
-      <c r="D31" s="110">
+      <c r="D31" s="110" t="n">
         <v>8381.5</v>
       </c>
-      <c r="E31" s="110">
-        <v>8430</v>
-      </c>
-      <c r="F31" s="110">
+      <c r="E31" s="110" t="n">
+        <v>8430.0</v>
+      </c>
+      <c r="F31" s="110" t="n">
         <v>9054.3994140625</v>
       </c>
-      <c r="G31" s="110">
+      <c r="G31" s="110" t="n">
         <v>9423.400390625</v>
       </c>
-      <c r="H31" s="110">
+      <c r="H31" s="110" t="n">
         <v>9884.7001953125</v>
       </c>
-      <c r="I31" s="110">
+      <c r="I31" s="110" t="n">
         <v>10092.7998046875</v>
       </c>
-      <c r="J31" s="110">
-        <v>11781</v>
-      </c>
-      <c r="K31" s="110">
-        <v>12442</v>
-      </c>
-      <c r="L31" s="110">
-        <v>13453</v>
-      </c>
-      <c r="M31" s="110">
-        <v>13773</v>
+      <c r="J31" s="110" t="n">
+        <v>11781.0</v>
+      </c>
+      <c r="K31" s="110" t="n">
+        <v>12442.0</v>
+      </c>
+      <c r="L31" s="110" t="n">
+        <v>13453.0</v>
+      </c>
+      <c r="M31" s="110" t="n">
+        <v>13773.0</v>
       </c>
       <c r="O31" s="107"/>
       <c r="P31" s="107"/>
@@ -23402,45 +23421,45 @@
         <v>27</v>
       </c>
       <c r="C32" s="113"/>
-      <c r="D32" s="121">
+      <c r="D32" s="121" t="n">
         <f t="shared" ref="D32" si="70">(D31-C31)/C31</f>
-        <v>2.1324559800158412E-2</v>
-      </c>
-      <c r="E32" s="121">
+        <v>0.02132455980015841</v>
+      </c>
+      <c r="E32" s="121" t="n">
         <f t="shared" ref="E32" si="71">(E31-D31)/D31</f>
-        <v>5.7865537195012822E-3</v>
-      </c>
-      <c r="F32" s="121">
+        <v>0.005786553719501282</v>
+      </c>
+      <c r="F32" s="121" t="n">
         <f t="shared" ref="F32" si="72">(F31-E31)/E31</f>
-        <v>7.406873239175564E-2</v>
-      </c>
-      <c r="G32" s="121">
+        <v>0.07406873239175564</v>
+      </c>
+      <c r="G32" s="121" t="n">
         <f t="shared" ref="G32" si="73">(G31-F31)/F31</f>
-        <v>4.0753777217890343E-2</v>
-      </c>
-      <c r="H32" s="121">
+        <v>0.04075377721789034</v>
+      </c>
+      <c r="H32" s="121" t="n">
         <f t="shared" ref="H32" si="74">(H31-G31)/G31</f>
-        <v>4.8952584583631879E-2</v>
-      </c>
-      <c r="I32" s="121">
+        <v>0.04895258458363188</v>
+      </c>
+      <c r="I32" s="121" t="n">
         <f t="shared" ref="I32" si="75">(I31-H31)/H31</f>
-        <v>2.1052698135820499E-2</v>
-      </c>
-      <c r="J32" s="121">
+        <v>0.0210526981358205</v>
+      </c>
+      <c r="J32" s="121" t="n">
         <f t="shared" ref="J32" si="76">(J31-I31)/I31</f>
-        <v>0.16726777782002891</v>
-      </c>
-      <c r="K32" s="121">
+        <v>0.1672677778200289</v>
+      </c>
+      <c r="K32" s="121" t="n">
         <f t="shared" ref="K32" si="77">(K31-J31)/J31</f>
-        <v>5.6107291401409048E-2</v>
-      </c>
-      <c r="L32" s="121">
+        <v>0.05610729140140905</v>
+      </c>
+      <c r="L32" s="121" t="n">
         <f t="shared" ref="L32" si="78">(L31-K31)/K31</f>
-        <v>8.1257032631409737E-2</v>
-      </c>
-      <c r="M32" s="121">
+        <v>0.08125703263140974</v>
+      </c>
+      <c r="M32" s="121" t="n">
         <f t="shared" ref="M32" si="79">(M31-L31)/L31</f>
-        <v>2.3786516018731881E-2</v>
+        <v>0.02378651601873188</v>
       </c>
       <c r="O32" s="107"/>
       <c r="P32" s="107"/>
@@ -23494,45 +23513,45 @@
         <v>50</v>
       </c>
       <c r="C34" s="111"/>
-      <c r="D34" s="111">
+      <c r="D34" s="111" t="n">
         <f>D28+D31</f>
         <v>10008.800048828125</v>
       </c>
-      <c r="E34" s="111">
+      <c r="E34" s="111" t="n">
         <f t="shared" ref="E34:M34" si="80">E28+E31</f>
-        <v>10093</v>
-      </c>
-      <c r="F34" s="111">
+        <v>10093.0</v>
+      </c>
+      <c r="F34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>10514.199462890625</v>
       </c>
-      <c r="G34" s="111">
+      <c r="G34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>10847.200439453125</v>
       </c>
-      <c r="H34" s="111">
+      <c r="H34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>11582.2001953125</v>
       </c>
-      <c r="I34" s="111">
+      <c r="I34" s="111" t="n">
         <f t="shared" si="80"/>
         <v>11980.899780273438</v>
       </c>
-      <c r="J34" s="111">
+      <c r="J34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>13347</v>
-      </c>
-      <c r="K34" s="111">
+        <v>13347.0</v>
+      </c>
+      <c r="K34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>13985</v>
-      </c>
-      <c r="L34" s="111">
+        <v>13985.0</v>
+      </c>
+      <c r="L34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>16723</v>
-      </c>
-      <c r="M34" s="111">
+        <v>16723.0</v>
+      </c>
+      <c r="M34" s="111" t="n">
         <f t="shared" si="80"/>
-        <v>17575</v>
+        <v>17575.0</v>
       </c>
       <c r="O34" s="107"/>
       <c r="P34" s="107"/>
@@ -23585,38 +23604,38 @@
       <c r="B36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="113">
+      <c r="C36" s="113" t="n">
         <v>1482.300048828125</v>
       </c>
-      <c r="D36" s="118">
+      <c r="D36" s="118" t="n">
         <v>1424.9000244140625</v>
       </c>
-      <c r="E36" s="110">
+      <c r="E36" s="110" t="n">
         <v>1430.9000244140625</v>
       </c>
-      <c r="F36" s="110">
+      <c r="F36" s="110" t="n">
         <v>1678.800048828125</v>
       </c>
-      <c r="G36" s="110">
-        <v>1442</v>
-      </c>
-      <c r="H36" s="110">
+      <c r="G36" s="110" t="n">
+        <v>1442.0</v>
+      </c>
+      <c r="H36" s="110" t="n">
         <v>1690.0999755859375</v>
       </c>
-      <c r="I36" s="110">
+      <c r="I36" s="110" t="n">
         <v>1732.0999755859375</v>
       </c>
-      <c r="J36" s="110">
-        <v>2028</v>
-      </c>
-      <c r="K36" s="110">
-        <v>1755</v>
-      </c>
-      <c r="L36" s="110">
-        <v>2297</v>
-      </c>
-      <c r="M36" s="110">
-        <v>2444</v>
+      <c r="J36" s="110" t="n">
+        <v>2028.0</v>
+      </c>
+      <c r="K36" s="110" t="n">
+        <v>1755.0</v>
+      </c>
+      <c r="L36" s="110" t="n">
+        <v>2297.0</v>
+      </c>
+      <c r="M36" s="110" t="n">
+        <v>2444.0</v>
       </c>
       <c r="O36" s="107"/>
       <c r="P36" s="107"/>
@@ -23646,45 +23665,45 @@
         <v>27</v>
       </c>
       <c r="C37" s="113"/>
-      <c r="D37" s="121">
+      <c r="D37" s="121" t="n">
         <f t="shared" ref="D37" si="81">(D36-C36)/C36</f>
-        <v>-3.872362040292824E-2</v>
-      </c>
-      <c r="E37" s="121">
+        <v>-0.03872362040292824</v>
+      </c>
+      <c r="E37" s="121" t="n">
         <f t="shared" ref="E37" si="82">(E36-D36)/D36</f>
-        <v>4.2108217399092884E-3</v>
-      </c>
-      <c r="F37" s="121">
+        <v>0.004210821739909288</v>
+      </c>
+      <c r="F37" s="121" t="n">
         <f t="shared" ref="F37" si="83">(F36-E36)/E36</f>
         <v>0.17324762050764217</v>
       </c>
-      <c r="G37" s="121">
+      <c r="G37" s="121" t="n">
         <f t="shared" ref="G37" si="84">(G36-F36)/F36</f>
-        <v>-0.14105315817295869</v>
-      </c>
-      <c r="H37" s="121">
+        <v>-0.1410531581729587</v>
+      </c>
+      <c r="H37" s="121" t="n">
         <f t="shared" ref="H37" si="85">(H36-G36)/G36</f>
         <v>0.17205268764628157</v>
       </c>
-      <c r="I37" s="121">
+      <c r="I37" s="121" t="n">
         <f t="shared" ref="I37" si="86">(I36-H36)/H36</f>
-        <v>2.4850600915155351E-2</v>
-      </c>
-      <c r="J37" s="121">
+        <v>0.02485060091515535</v>
+      </c>
+      <c r="J37" s="121" t="n">
         <f t="shared" ref="J37" si="87">(J36-I36)/I36</f>
         <v>0.17083310928052237</v>
       </c>
-      <c r="K37" s="121">
+      <c r="K37" s="121" t="n">
         <f t="shared" ref="K37" si="88">(K36-J36)/J36</f>
-        <v>-0.13461538461538461</v>
-      </c>
-      <c r="L37" s="121">
+        <v>-0.1346153846153846</v>
+      </c>
+      <c r="L37" s="121" t="n">
         <f t="shared" ref="L37" si="89">(L36-K36)/K36</f>
-        <v>0.30883190883190881</v>
-      </c>
-      <c r="M37" s="121">
+        <v>0.3088319088319088</v>
+      </c>
+      <c r="M37" s="121" t="n">
         <f t="shared" ref="M37" si="90">(M36-L36)/L36</f>
-        <v>6.3996517196343056E-2</v>
+        <v>0.06399651719634306</v>
       </c>
       <c r="O37" s="107"/>
       <c r="P37" s="107"/>
@@ -23737,38 +23756,38 @@
       <c r="B39" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="113">
+      <c r="C39" s="113" t="n">
         <v>4879.2001953125</v>
       </c>
-      <c r="D39" s="110">
-        <v>5036</v>
-      </c>
-      <c r="E39" s="110">
+      <c r="D39" s="110" t="n">
+        <v>5036.0</v>
+      </c>
+      <c r="E39" s="110" t="n">
         <v>4998.89990234375</v>
       </c>
-      <c r="F39" s="110">
-        <v>5263</v>
-      </c>
-      <c r="G39" s="110">
+      <c r="F39" s="110" t="n">
+        <v>5263.0</v>
+      </c>
+      <c r="G39" s="110" t="n">
         <v>5810.2001953125</v>
       </c>
-      <c r="H39" s="110">
+      <c r="H39" s="110" t="n">
         <v>6151.2001953125</v>
       </c>
-      <c r="I39" s="110">
+      <c r="I39" s="110" t="n">
         <v>6148.7998046875</v>
       </c>
-      <c r="J39" s="110">
-        <v>7492</v>
-      </c>
-      <c r="K39" s="110">
-        <v>8093</v>
-      </c>
-      <c r="L39" s="110">
-        <v>8895</v>
-      </c>
-      <c r="M39" s="110">
-        <v>9057</v>
+      <c r="J39" s="110" t="n">
+        <v>7492.0</v>
+      </c>
+      <c r="K39" s="110" t="n">
+        <v>8093.0</v>
+      </c>
+      <c r="L39" s="110" t="n">
+        <v>8895.0</v>
+      </c>
+      <c r="M39" s="110" t="n">
+        <v>9057.0</v>
       </c>
       <c r="O39" s="107"/>
       <c r="P39" s="107"/>
@@ -23798,45 +23817,45 @@
         <v>27</v>
       </c>
       <c r="C40" s="113"/>
-      <c r="D40" s="121">
+      <c r="D40" s="121" t="n">
         <f t="shared" ref="D40" si="91">(D39-C39)/C39</f>
-        <v>3.2136374489847588E-2</v>
-      </c>
-      <c r="E40" s="121">
+        <v>0.03213637448984759</v>
+      </c>
+      <c r="E40" s="121" t="n">
         <f t="shared" ref="E40" si="92">(E39-D39)/D39</f>
-        <v>-7.3669772947279584E-3</v>
-      </c>
-      <c r="F40" s="121">
+        <v>-0.007366977294727958</v>
+      </c>
+      <c r="F40" s="121" t="n">
         <f t="shared" ref="F40" si="93">(F39-E39)/E39</f>
-        <v>5.2831643524693467E-2</v>
-      </c>
-      <c r="G40" s="121">
+        <v>0.05283164352469347</v>
+      </c>
+      <c r="G40" s="121" t="n">
         <f t="shared" ref="G40" si="94">(G39-F39)/F39</f>
         <v>0.10397115624406232</v>
       </c>
-      <c r="H40" s="121">
+      <c r="H40" s="121" t="n">
         <f t="shared" ref="H40" si="95">(H39-G39)/G39</f>
-        <v>5.8689888220221545E-2</v>
-      </c>
-      <c r="I40" s="121">
+        <v>0.058689888220221545</v>
+      </c>
+      <c r="I40" s="121" t="n">
         <f t="shared" ref="I40" si="96">(I39-H39)/H39</f>
         <v>-3.9023126362058727E-4</v>
       </c>
-      <c r="J40" s="121">
+      <c r="J40" s="121" t="n">
         <f t="shared" ref="J40" si="97">(J39-I39)/I39</f>
         <v>0.21844916698841285</v>
       </c>
-      <c r="K40" s="121">
+      <c r="K40" s="121" t="n">
         <f t="shared" ref="K40" si="98">(K39-J39)/J39</f>
-        <v>8.0218900160170845E-2</v>
-      </c>
-      <c r="L40" s="121">
+        <v>0.08021890016017084</v>
+      </c>
+      <c r="L40" s="121" t="n">
         <f t="shared" ref="L40" si="99">(L39-K39)/K39</f>
-        <v>9.9097985913752629E-2</v>
-      </c>
-      <c r="M40" s="121">
+        <v>0.09909798591375263</v>
+      </c>
+      <c r="M40" s="121" t="n">
         <f t="shared" ref="M40" si="100">(M39-L39)/L39</f>
-        <v>1.821247892074199E-2</v>
+        <v>0.01821247892074199</v>
       </c>
       <c r="O40" s="107"/>
       <c r="P40" s="107"/>
@@ -23892,45 +23911,45 @@
       <c r="C42" s="116">
         <v>1</v>
       </c>
-      <c r="D42" s="111">
+      <c r="D42" s="111" t="n">
         <f>D36+D39</f>
         <v>6460.9000244140625</v>
       </c>
-      <c r="E42" s="111">
+      <c r="E42" s="111" t="n">
         <f t="shared" ref="E42:M42" si="101">E36+E39</f>
         <v>6429.7999267578125</v>
       </c>
-      <c r="F42" s="111">
+      <c r="F42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>6941.800048828125</v>
       </c>
-      <c r="G42" s="111">
+      <c r="G42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>7252.2001953125</v>
       </c>
-      <c r="H42" s="111">
+      <c r="H42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>7841.3001708984375</v>
       </c>
-      <c r="I42" s="111">
+      <c r="I42" s="111" t="n">
         <f t="shared" si="101"/>
         <v>7880.8997802734375</v>
       </c>
-      <c r="J42" s="111">
+      <c r="J42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>9520</v>
-      </c>
-      <c r="K42" s="111">
+        <v>9520.0</v>
+      </c>
+      <c r="K42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>9848</v>
-      </c>
-      <c r="L42" s="111">
+        <v>9848.0</v>
+      </c>
+      <c r="L42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>11192</v>
-      </c>
-      <c r="M42" s="111">
+        <v>11192.0</v>
+      </c>
+      <c r="M42" s="111" t="n">
         <f t="shared" si="101"/>
-        <v>11501</v>
+        <v>11501.0</v>
       </c>
       <c r="O42" s="107"/>
       <c r="P42" s="107"/>
@@ -23988,45 +24007,45 @@
       <c r="C44" s="134">
         <v>1</v>
       </c>
-      <c r="D44" s="134">
+      <c r="D44" s="134" t="n">
         <f>D34-D42</f>
         <v>3547.9000244140625</v>
       </c>
-      <c r="E44" s="134">
+      <c r="E44" s="134" t="n">
         <f t="shared" ref="E44:M44" si="102">E34-E42</f>
         <v>3663.2000732421875</v>
       </c>
-      <c r="F44" s="134">
+      <c r="F44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>3572.3994140625</v>
       </c>
-      <c r="G44" s="134">
+      <c r="G44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>3595.000244140625</v>
       </c>
-      <c r="H44" s="134">
+      <c r="H44" s="134" t="n">
         <f t="shared" si="102"/>
         <v>3740.9000244140625</v>
       </c>
-      <c r="I44" s="134">
+      <c r="I44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>4100</v>
-      </c>
-      <c r="J44" s="134">
+        <v>4100.0</v>
+      </c>
+      <c r="J44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>3827</v>
-      </c>
-      <c r="K44" s="134">
+        <v>3827.0</v>
+      </c>
+      <c r="K44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>4137</v>
-      </c>
-      <c r="L44" s="134">
+        <v>4137.0</v>
+      </c>
+      <c r="L44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>5531</v>
-      </c>
-      <c r="M44" s="134">
+        <v>5531.0</v>
+      </c>
+      <c r="M44" s="134" t="n">
         <f t="shared" si="102"/>
-        <v>6074</v>
+        <v>6074.0</v>
       </c>
       <c r="O44" s="107"/>
       <c r="P44" s="107"/>
@@ -24088,40 +24107,40 @@
     </row>
     <row r="46" spans="2:36">
       <c r="B46" s="122" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="133">
+        <v>158</v>
+      </c>
+      <c r="C46" s="133" t="n">
         <v>3347.60009765625</v>
       </c>
-      <c r="D46" s="133">
+      <c r="D46" s="133" t="n">
         <v>3542.199951171875</v>
       </c>
-      <c r="E46" s="133">
+      <c r="E46" s="133" t="n">
         <v>3433.60009765625</v>
       </c>
-      <c r="F46" s="133">
+      <c r="F46" s="133" t="n">
         <v>3409.5</v>
       </c>
-      <c r="G46" s="133">
-        <v>3766</v>
-      </c>
-      <c r="H46" s="133">
+      <c r="G46" s="133" t="n">
+        <v>3766.0</v>
+      </c>
+      <c r="H46" s="133" t="n">
         <v>3994.60009765625</v>
       </c>
-      <c r="I46" s="133">
+      <c r="I46" s="133" t="n">
         <v>4146.5</v>
       </c>
-      <c r="J46" s="133">
-        <v>5780</v>
-      </c>
-      <c r="K46" s="136">
-        <v>5981</v>
-      </c>
-      <c r="L46" s="133">
-        <v>6339</v>
-      </c>
-      <c r="M46" s="133">
-        <v>6483</v>
+      <c r="J46" s="133" t="n">
+        <v>5780.0</v>
+      </c>
+      <c r="K46" s="136" t="n">
+        <v>5981.0</v>
+      </c>
+      <c r="L46" s="133" t="n">
+        <v>6339.0</v>
+      </c>
+      <c r="M46" s="133" t="n">
+        <v>6483.0</v>
       </c>
       <c r="Q46" s="107"/>
       <c r="R46" s="107"/>
@@ -24255,43 +24274,43 @@
         <v>57</v>
       </c>
       <c r="C50" s="113"/>
-      <c r="D50" s="126">
+      <c r="D50" s="126" t="n">
         <f t="shared" ref="D50:M50" si="103">D6/D3</f>
-        <v>3.8653453035430725E-2</v>
-      </c>
-      <c r="E50" s="126">
+        <v>0.038653453035430725</v>
+      </c>
+      <c r="E50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>4.0737924222108278E-2</v>
-      </c>
-      <c r="F50" s="126">
+        <v>0.04073792422210828</v>
+      </c>
+      <c r="F50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>4.1996083737923504E-2</v>
-      </c>
-      <c r="G50" s="126">
+        <v>0.041996083737923504</v>
+      </c>
+      <c r="G50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>6.4143377188213876E-2</v>
-      </c>
-      <c r="H50" s="126">
+        <v>0.06414337718821388</v>
+      </c>
+      <c r="H50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>7.1331709146264577E-2</v>
-      </c>
-      <c r="I50" s="126">
+        <v>0.07133170914626458</v>
+      </c>
+      <c r="I50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>9.3974643837406877E-2</v>
-      </c>
-      <c r="J50" s="126">
+        <v>0.09397464383740688</v>
+      </c>
+      <c r="J50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>3.4972677595628415E-2</v>
-      </c>
-      <c r="K50" s="126">
+        <v>0.034972677595628415</v>
+      </c>
+      <c r="K50" s="126" t="n">
         <f t="shared" si="103"/>
-        <v>8.1109925293489857E-2</v>
-      </c>
-      <c r="L50" s="126">
+        <v>0.08110992529348986</v>
+      </c>
+      <c r="L50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.19699207734658253</v>
       </c>
-      <c r="M50" s="126">
+      <c r="M50" s="126" t="n">
         <f t="shared" si="103"/>
         <v>0.10617454977241243</v>
       </c>
@@ -24323,45 +24342,45 @@
         <v>58</v>
       </c>
       <c r="C51" s="113"/>
-      <c r="D51" s="126">
+      <c r="D51" s="126" t="n">
         <f t="shared" ref="D51:M51" si="104">D9/D3</f>
         <v>0.16598328196495618</v>
       </c>
-      <c r="E51" s="126">
+      <c r="E51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.16533169418667276</v>
       </c>
-      <c r="F51" s="126">
+      <c r="F51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.18068777665177763</v>
       </c>
-      <c r="G51" s="126">
+      <c r="G51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.24427967590018571</v>
-      </c>
-      <c r="H51" s="126">
+        <v>0.2442796759001857</v>
+      </c>
+      <c r="H51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.23302890246453387</v>
       </c>
-      <c r="I51" s="126">
+      <c r="I51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.19866684093582537</v>
       </c>
-      <c r="J51" s="126">
+      <c r="J51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.14549180327868852</v>
       </c>
-      <c r="K51" s="126">
+      <c r="K51" s="126" t="n">
         <f t="shared" si="104"/>
         <v>0.22350968135386493</v>
       </c>
-      <c r="L51" s="126">
+      <c r="L51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.38297300926547601</v>
-      </c>
-      <c r="M51" s="126">
+        <v>0.382973009265476</v>
+      </c>
+      <c r="M51" s="126" t="n">
         <f t="shared" si="104"/>
-        <v>0.21610924203443499</v>
+        <v>0.216109242034435</v>
       </c>
       <c r="O51" s="107"/>
       <c r="P51" s="107"/>
@@ -24391,45 +24410,45 @@
         <v>59</v>
       </c>
       <c r="C52" s="113"/>
-      <c r="D52" s="126">
+      <c r="D52" s="126" t="n">
         <f t="shared" ref="D52:M52" si="105">D20/D3</f>
-        <v>4.3851722995428631E-2</v>
-      </c>
-      <c r="E52" s="126">
+        <v>0.04385172299542863</v>
+      </c>
+      <c r="E52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>6.6277649539196529E-2</v>
-      </c>
-      <c r="F52" s="126">
+        <v>0.06627764953919653</v>
+      </c>
+      <c r="F52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.1006112600890306</v>
       </c>
-      <c r="G52" s="126">
+      <c r="G52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>7.1389623081273765E-2</v>
-      </c>
-      <c r="H52" s="126">
+        <v>0.07138962308127376</v>
+      </c>
+      <c r="H52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>5.3180190111138288E-2</v>
-      </c>
-      <c r="I52" s="126">
+        <v>0.05318019011113829</v>
+      </c>
+      <c r="I52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>6.6788655077767614E-2</v>
-      </c>
-      <c r="J52" s="126">
+        <v>0.06678865507776761</v>
+      </c>
+      <c r="J52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>5.0956284153005467E-2</v>
-      </c>
-      <c r="K52" s="126">
+        <v>0.05095628415300547</v>
+      </c>
+      <c r="K52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>6.8150632718402201E-2</v>
-      </c>
-      <c r="L52" s="126">
+        <v>0.0681506327184022</v>
+      </c>
+      <c r="L52" s="126" t="n">
         <f t="shared" si="105"/>
         <v>0.10621726869880489</v>
       </c>
-      <c r="M52" s="126">
+      <c r="M52" s="126" t="n">
         <f t="shared" si="105"/>
-        <v>-8.7076983969918854E-3</v>
+        <v>-0.008707698396991885</v>
       </c>
       <c r="O52" s="107"/>
       <c r="P52" s="107"/>
@@ -24541,43 +24560,43 @@
         <v>62</v>
       </c>
       <c r="C55" s="114"/>
-      <c r="D55" s="126">
+      <c r="D55" s="126" t="n">
         <f>D23/D20</f>
         <v>0.39873218082966083</v>
       </c>
-      <c r="E55" s="126">
+      <c r="E55" s="126" t="n">
         <f t="shared" ref="E55:M55" si="106">E23/E20</f>
-        <v>0.24808605935163039</v>
-      </c>
-      <c r="F55" s="126">
+        <v>0.2480860593516304</v>
+      </c>
+      <c r="F55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.22801544446911526</v>
       </c>
-      <c r="G55" s="126">
+      <c r="G55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.39591032117439512</v>
-      </c>
-      <c r="H55" s="126">
+        <v>0.3959103211743951</v>
+      </c>
+      <c r="H55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.51889399046538864</v>
-      </c>
-      <c r="I55" s="126">
+        <v>0.5188939904653886</v>
+      </c>
+      <c r="I55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.34637964774951074</v>
       </c>
-      <c r="J55" s="126">
+      <c r="J55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.53619302949061665</v>
-      </c>
-      <c r="K55" s="126">
+        <v>0.5361930294906166</v>
+      </c>
+      <c r="K55" s="126" t="n">
         <f t="shared" si="106"/>
-        <v>0.61073825503355705</v>
-      </c>
-      <c r="L55" s="126">
+        <v>0.610738255033557</v>
+      </c>
+      <c r="L55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>0.35651074589127685</v>
       </c>
-      <c r="M55" s="126">
+      <c r="M55" s="126" t="n">
         <f t="shared" si="106"/>
         <v>-3.3636363636363638</v>
       </c>
@@ -24691,43 +24710,43 @@
         <v>64</v>
       </c>
       <c r="C58" s="113"/>
-      <c r="D58" s="112">
+      <c r="D58" s="112" t="n">
         <f>D42/D44</f>
         <v>1.8210490656317424</v>
       </c>
-      <c r="E58" s="112">
+      <c r="E58" s="112" t="n">
         <f t="shared" ref="E58:M58" si="107">E42/E44</f>
-        <v>1.7552412639768771</v>
-      </c>
-      <c r="F58" s="112">
+        <v>1.755241263976877</v>
+      </c>
+      <c r="F58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.9431757886596388</v>
       </c>
-      <c r="G58" s="112">
+      <c r="G58" s="112" t="n">
         <f t="shared" si="107"/>
-        <v>2.0173017253983829</v>
-      </c>
-      <c r="H58" s="112">
+        <v>2.017301725398383</v>
+      </c>
+      <c r="H58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>2.096099901019576</v>
       </c>
-      <c r="I58" s="112">
+      <c r="I58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.9221706781154733</v>
       </c>
-      <c r="J58" s="112">
+      <c r="J58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>2.487588189182127</v>
       </c>
-      <c r="K58" s="112">
+      <c r="K58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>2.3804689388445732</v>
       </c>
-      <c r="L58" s="112">
+      <c r="L58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>2.0235038871813416</v>
       </c>
-      <c r="M58" s="112">
+      <c r="M58" s="112" t="n">
         <f t="shared" si="107"/>
         <v>1.8934804082976622</v>
       </c>
@@ -24759,45 +24778,45 @@
         <v>65</v>
       </c>
       <c r="C59" s="113"/>
-      <c r="D59" s="112">
+      <c r="D59" s="112" t="n">
         <f>D28/D36</f>
         <v>1.1420450704934895</v>
       </c>
-      <c r="E59" s="112">
+      <c r="E59" s="112" t="n">
         <f t="shared" ref="E59:M59" si="108">E28/E36</f>
-        <v>1.1622055850344839</v>
-      </c>
-      <c r="F59" s="112">
+        <v>1.162205585034484</v>
+      </c>
+      <c r="F59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.86954968213583816</v>
-      </c>
-      <c r="G59" s="112">
+        <v>0.8695496821358382</v>
+      </c>
+      <c r="G59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.98737867463809292</v>
-      </c>
-      <c r="H59" s="112">
+        <v>0.9873786746380929</v>
+      </c>
+      <c r="H59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.0043784536541955</v>
       </c>
-      <c r="I59" s="112">
+      <c r="I59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>1.0900640853292709</v>
-      </c>
-      <c r="J59" s="112">
+        <v>1.090064085329271</v>
+      </c>
+      <c r="J59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.77218934911242598</v>
-      </c>
-      <c r="K59" s="112">
+        <v>0.772189349112426</v>
+      </c>
+      <c r="K59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>0.87920227920227922</v>
-      </c>
-      <c r="L59" s="112">
+        <v>0.8792022792022792</v>
+      </c>
+      <c r="L59" s="112" t="n">
         <f t="shared" si="108"/>
         <v>1.4235959947757946</v>
       </c>
-      <c r="M59" s="112">
+      <c r="M59" s="112" t="n">
         <f t="shared" si="108"/>
-        <v>1.5556464811783961</v>
+        <v>1.555646481178396</v>
       </c>
       <c r="O59" s="107"/>
       <c r="P59" s="107"/>
@@ -24824,45 +24843,45 @@
     </row>
     <row r="60" spans="2:36">
       <c r="B60" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="112">
+        <v>160</v>
+      </c>
+      <c r="D60" s="112" t="n">
         <f>D46/D9</f>
         <v>2.9661699011927483</v>
       </c>
-      <c r="E60" s="112">
+      <c r="E60" s="112" t="n">
         <f t="shared" ref="E60:M60" si="109">E46/E9</f>
-        <v>2.5090245507170259</v>
-      </c>
-      <c r="F60" s="112">
+        <v>2.509024550717026</v>
+      </c>
+      <c r="F60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.8200992555831266</v>
       </c>
-      <c r="G60" s="112">
+      <c r="G60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.7114963538452783</v>
       </c>
-      <c r="H60" s="112">
+      <c r="H60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.8006730427712423</v>
       </c>
-      <c r="I60" s="112">
+      <c r="I60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.7279605263157896</v>
       </c>
-      <c r="J60" s="112">
+      <c r="J60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>5.427230046948357</v>
       </c>
-      <c r="K60" s="112">
+      <c r="K60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>4.0798090040927697</v>
-      </c>
-      <c r="L60" s="112">
+        <v>4.07980900409277</v>
+      </c>
+      <c r="L60" s="112" t="n">
         <f t="shared" si="109"/>
-        <v>2.2226507713884991</v>
-      </c>
-      <c r="M60" s="112">
+        <v>2.222650771388499</v>
+      </c>
+      <c r="M60" s="112" t="n">
         <f t="shared" si="109"/>
         <v>2.9684065934065935</v>
       </c>
@@ -24947,7 +24966,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="113"/>
-      <c r="D63" s="121">
+      <c r="D63" s="121" t="n">
         <f>(M20/I20)^0.2 - 1</f>
         <v>-1.7034161810570312</v>
       </c>
@@ -24979,9 +24998,9 @@
         <v>83</v>
       </c>
       <c r="C64" s="113"/>
-      <c r="D64" s="121">
+      <c r="D64" s="121" t="n">
         <f>(M20/D20)^0.1 - 1</f>
-        <v>-1.8801330526459421</v>
+        <v>-1.880133052645942</v>
       </c>
     </row>
     <row r="65" spans="2:13">
@@ -24989,9 +25008,9 @@
         <v>74</v>
       </c>
       <c r="C65" s="114"/>
-      <c r="D65" s="121">
+      <c r="D65" s="121" t="n">
         <f>(M6/I6)^0.2 - 1</f>
-        <v>8.3363417168461851E-2</v>
+        <v>0.08336341716846185</v>
       </c>
     </row>
     <row r="66" spans="2:13">
@@ -24999,9 +25018,9 @@
         <v>84</v>
       </c>
       <c r="C66" s="114"/>
-      <c r="D66" s="121">
+      <c r="D66" s="121" t="n">
         <f>(M6/D6)^0.1 - 1</f>
-        <v>0.14456344772713159</v>
+        <v>0.1445634477271316</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -25009,9 +25028,9 @@
         <v>75</v>
       </c>
       <c r="C67" s="114"/>
-      <c r="D67" s="121">
+      <c r="D67" s="121" t="n">
         <f>(M3/I3)^0.2 - 1</f>
-        <v>5.7236670649805754E-2</v>
+        <v>0.057236670649805754</v>
       </c>
     </row>
     <row r="68" spans="2:13">
@@ -25019,9 +25038,9 @@
         <v>85</v>
       </c>
       <c r="C68" s="114"/>
-      <c r="D68" s="121">
+      <c r="D68" s="121" t="n">
         <f>(M3/D3)^0.1 - 1</f>
-        <v>3.4562325727179655E-2</v>
+        <v>0.034562325727179655</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -25029,9 +25048,9 @@
         <v>88</v>
       </c>
       <c r="C69" s="114"/>
-      <c r="D69" s="121">
+      <c r="D69" s="121" t="n">
         <f>(M9/I9)^0.2 - 1</f>
-        <v>7.5181564583320259E-2</v>
+        <v>0.07518156458332026</v>
       </c>
     </row>
     <row r="70" spans="2:13">
@@ -25039,7 +25058,7 @@
         <v>89</v>
       </c>
       <c r="C70" s="114"/>
-      <c r="D70" s="121">
+      <c r="D70" s="121" t="n">
         <f>(M9/D9)^0.2 - 1</f>
         <v>0.12832735434671894</v>
       </c>
@@ -25048,7 +25067,7 @@
       <c r="B71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="121">
+      <c r="D71" s="121" t="n">
         <f>(M23/I23)^0.2 - 1</f>
         <v>0.10831621959108628</v>
       </c>
@@ -25057,7 +25076,7 @@
       <c r="B72" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="121">
+      <c r="D72" s="121" t="n">
         <f>AVERAGE(I24:M24)</f>
         <v>0.1251026669916562</v>
       </c>
@@ -25066,9 +25085,9 @@
       <c r="B73" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D73" s="121">
+      <c r="D73" s="121" t="n">
         <f>AVERAGE(I55:M55)</f>
-        <v>-0.30276293709428048</v>
+        <v>-0.3027629370942805</v>
       </c>
     </row>
     <row r="75" spans="2:13" ht="17.5" thickBot="1">
@@ -25114,45 +25133,45 @@
       <c r="C76" s="110">
         <v>0</v>
       </c>
-      <c r="D76" s="110">
+      <c r="D76" s="110" t="n">
         <f t="shared" ref="D76:M76" si="110">100*D6/D34</f>
-        <v>2.7785549191391619</v>
-      </c>
-      <c r="E76" s="110">
+        <v>2.778554919139162</v>
+      </c>
+      <c r="E76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>3.3409294779256018</v>
-      </c>
-      <c r="F76" s="110">
+        <v>3.340929477925602</v>
+      </c>
+      <c r="F76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>2.6725762716579329</v>
-      </c>
-      <c r="G76" s="110">
+        <v>2.672576271657933</v>
+      </c>
+      <c r="G76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>3.3621579525769199</v>
-      </c>
-      <c r="H76" s="110">
+        <v>3.36215795257692</v>
+      </c>
+      <c r="H76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>3.7695774441907415</v>
       </c>
-      <c r="I76" s="110">
+      <c r="I76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>6.0012187163424606</v>
-      </c>
-      <c r="J76" s="110">
+        <v>6.001218716342461</v>
+      </c>
+      <c r="J76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>1.9180340151344872</v>
       </c>
-      <c r="K76" s="110">
+      <c r="K76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>3.8040757954951734</v>
       </c>
-      <c r="L76" s="110">
+      <c r="L76" s="110" t="n">
         <f t="shared" si="110"/>
         <v>8.772349458829158</v>
       </c>
-      <c r="M76" s="110">
+      <c r="M76" s="110" t="n">
         <f t="shared" si="110"/>
-        <v>6.1052631578947372</v>
+        <v>6.105263157894737</v>
       </c>
     </row>
     <row r="77" spans="2:13">
@@ -25162,43 +25181,43 @@
       <c r="C77" s="110">
         <v>0</v>
       </c>
-      <c r="D77" s="110">
+      <c r="D77" s="110" t="n">
         <f t="shared" ref="D77:M77" si="111">100*D6/D44</f>
-        <v>7.8384397584439984</v>
-      </c>
-      <c r="E77" s="110">
+        <v>7.838439758443998</v>
+      </c>
+      <c r="E77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>9.2050667576173435</v>
-      </c>
-      <c r="F77" s="110">
+        <v>9.205066757617343</v>
+      </c>
+      <c r="F77" s="110" t="n">
         <f t="shared" si="111"/>
-        <v>7.8658617760898508</v>
-      </c>
-      <c r="G77" s="110">
+        <v>7.865861776089851</v>
+      </c>
+      <c r="G77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>10.144644991372205</v>
       </c>
-      <c r="H77" s="110">
+      <c r="H77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>11.67098835184458</v>
       </c>
-      <c r="I77" s="110">
+      <c r="I77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>17.536585365853657</v>
       </c>
-      <c r="J77" s="110">
+      <c r="J77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>6.68931277763261</v>
       </c>
-      <c r="K77" s="110">
+      <c r="K77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>12.859560067681896</v>
       </c>
-      <c r="L77" s="110">
+      <c r="L77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>26.523232688483095</v>
       </c>
-      <c r="M77" s="110">
+      <c r="M77" s="110" t="n">
         <f t="shared" si="111"/>
         <v>17.665459334869936</v>
       </c>
@@ -25207,37 +25226,37 @@
       <c r="B78" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="110">
-        <v>0</v>
-      </c>
-      <c r="D78" s="40">
-        <v>7.1100001335144043</v>
-      </c>
-      <c r="E78" s="40">
-        <v>7.6700000762939453</v>
-      </c>
-      <c r="F78" s="40">
-        <v>6.8000001907348633</v>
-      </c>
-      <c r="G78" s="40">
+      <c r="C78" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="40" t="n">
+        <v>7.110000133514404</v>
+      </c>
+      <c r="E78" s="40" t="n">
+        <v>7.670000076293945</v>
+      </c>
+      <c r="F78" s="40" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="G78" s="40" t="n">
         <v>7.570000171661377</v>
       </c>
-      <c r="H78" s="40">
-        <v>8</v>
-      </c>
-      <c r="I78" s="40">
+      <c r="H78" s="40" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I78" s="40" t="n">
         <v>11.529999732971191</v>
       </c>
-      <c r="J78" s="40">
+      <c r="J78" s="40" t="n">
         <v>4.679999828338623</v>
       </c>
-      <c r="K78" s="40">
-        <v>7.4600000381469727</v>
-      </c>
-      <c r="L78" s="40">
+      <c r="K78" s="40" t="n">
+        <v>7.460000038146973</v>
+      </c>
+      <c r="L78" s="40" t="n">
         <v>14.869999885559082</v>
       </c>
-      <c r="M78" s="40">
+      <c r="M78" s="40" t="n">
         <v>10.489999771118164</v>
       </c>
     </row>
@@ -25281,75 +25300,75 @@
       <c r="B81" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="110">
-        <v>0</v>
-      </c>
-      <c r="D81" s="40">
+      <c r="C81" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" s="40" t="n">
         <v>17.200000762939453</v>
       </c>
-      <c r="E81" s="40">
+      <c r="E81" s="40" t="n">
         <v>19.780000686645508</v>
       </c>
-      <c r="F81" s="40">
+      <c r="F81" s="40" t="n">
         <v>21.100000381469727</v>
       </c>
-      <c r="G81" s="40">
+      <c r="G81" s="40" t="n">
         <v>22.149999618530273</v>
       </c>
-      <c r="H81" s="40">
-        <v>19.090000152587891</v>
-      </c>
-      <c r="I81" s="40">
+      <c r="H81" s="40" t="n">
+        <v>19.09000015258789</v>
+      </c>
+      <c r="I81" s="40" t="n">
         <v>13.140000343322754</v>
       </c>
-      <c r="J81" s="40">
+      <c r="J81" s="40" t="n">
         <v>32.029998779296875</v>
       </c>
-      <c r="K81" s="40">
+      <c r="K81" s="40" t="n">
         <v>13.760000228881836</v>
       </c>
-      <c r="L81" s="40">
+      <c r="L81" s="40" t="n">
         <v>6.630000114440918</v>
       </c>
-      <c r="M81" s="40">
-        <v>7.4600000381469727</v>
+      <c r="M81" s="40" t="n">
+        <v>7.460000038146973</v>
       </c>
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="110">
-        <v>0</v>
-      </c>
-      <c r="D82" s="40">
-        <v>5.9800000190734863</v>
-      </c>
-      <c r="E82" s="40">
+      <c r="C82" s="110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" s="40" t="n">
+        <v>5.980000019073486</v>
+      </c>
+      <c r="E82" s="40" t="n">
         <v>6.619999885559082</v>
       </c>
-      <c r="F82" s="40">
-        <v>5.0999999046325684</v>
-      </c>
-      <c r="G82" s="40">
-        <v>8.3400001525878906</v>
-      </c>
-      <c r="H82" s="40">
+      <c r="F82" s="40" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="G82" s="40" t="n">
+        <v>8.34000015258789</v>
+      </c>
+      <c r="H82" s="40" t="n">
         <v>8.619999885559082</v>
       </c>
-      <c r="I82" s="40">
-        <v>8.6999998092651367</v>
-      </c>
-      <c r="J82" s="40">
-        <v>7.5900001525878906</v>
-      </c>
-      <c r="K82" s="40">
-        <v>6.6599998474121094</v>
-      </c>
-      <c r="L82" s="40">
-        <v>6.5799999237060547</v>
-      </c>
-      <c r="M82" s="40">
+      <c r="I82" s="40" t="n">
+        <v>8.699999809265137</v>
+      </c>
+      <c r="J82" s="40" t="n">
+        <v>7.590000152587891</v>
+      </c>
+      <c r="K82" s="40" t="n">
+        <v>6.659999847412109</v>
+      </c>
+      <c r="L82" s="40" t="n">
+        <v>6.579999923706055</v>
+      </c>
+      <c r="M82" s="40" t="n">
         <v>11.170000076293945</v>
       </c>
     </row>
@@ -25357,7 +25376,7 @@
       <c r="B83" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="110">
+      <c r="C83" s="110" t="n">
         <v>1.9900000095367432</v>
       </c>
     </row>
